--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B91DF-E9B0-0048-89B3-0C50F8BED40D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="460" windowWidth="33600" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="8385" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -49,16 +43,94 @@
     <t>PERMISSION_TYPE</t>
   </si>
   <si>
+    <t>IS_PUBLIC_ACCESS</t>
+  </si>
+  <si>
+    <t>IS_LOGIN_ACCESS</t>
+  </si>
+  <si>
     <t>IS_WITHIN</t>
   </si>
   <si>
+    <t>choerodon.route.develop.app-service</t>
+  </si>
+  <si>
+    <t>/devops/app-service</t>
+  </si>
+  <si>
     <t>devops</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>应用服务路由</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
-    <t>project</t>
+    <t>choerodon.route.develop.code-management</t>
+  </si>
+  <si>
+    <t>/devops/code-management</t>
+  </si>
+  <si>
+    <t>代码管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>/devops/deployment-operation</t>
+  </si>
+  <si>
+    <t>部署路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.resource</t>
+  </si>
+  <si>
+    <t>/devops/resource</t>
+  </si>
+  <si>
+    <t>资源路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>/devops/pipeline</t>
+  </si>
+  <si>
+    <t>流水线路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.environment</t>
+  </si>
+  <si>
+    <t>/devops/environment</t>
+  </si>
+  <si>
+    <t>环境配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>/devops/cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>/devops/cert-management</t>
+  </si>
+  <si>
+    <t>证书管理路由</t>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -73,6 +145,9 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
+    <t>PARENT_CODE</t>
+  </si>
+  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -82,6 +157,147 @@
     <t>SORT</t>
   </si>
   <si>
+    <t>choerodon.code.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+  </si>
+  <si>
+    <t>Code Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+  </si>
+  <si>
+    <t>环境配置</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -103,365 +319,86 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
-    <t>IS_LOGIN_ACCESS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_PUBLIC_ACCESS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群管理路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/app-service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.code-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/code-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.deployment-operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/deployment-operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.resource</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/resource</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.pipeline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.environment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cluster-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cert-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/cert-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/cluster-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/environment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/pipeline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码管理路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境配置路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书管理路由</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用部署</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>widgets</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrench</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>linear_scale</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_usage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>devops-service.app-service.pageByOptions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.app-service.create</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.app-service.update</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.app-service.importAppService</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.app-service.pagePermissionUsers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.devops-environment.listEnvTree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devops-service.devops-environment.listResourceEnvTree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application Service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipeline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cluster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Development</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageTagsByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.updateBranchIssue</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageBranchByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryUrl</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listMergeRequest</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-record.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTreeMenu</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
   </si>
   <si>
     <t>devops-service.project-certification.pageOrgCert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-record.pageByOptions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.pipeline.pageByOptions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTreeMenu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -474,29 +411,366 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -504,27 +778,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -809,37 +1370,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,34 +1426,34 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -904,24 +1465,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -933,24 +1494,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" ht="13.5" spans="6:14">
       <c r="F10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -962,24 +1523,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -991,24 +1552,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1020,24 +1581,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1049,24 +1610,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1078,24 +1639,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" ht="13.5" spans="6:14">
       <c r="F15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1108,9 +1669,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1119,36 +1679,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D5:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="225" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="225" zoomScaleNormal="225" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:16" ht="11" customHeight="1"/>
-    <row r="6" spans="4:16" hidden="1"/>
-    <row r="7" spans="4:16" ht="24" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" ht="24" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1157,410 +1718,409 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="4:16">
-      <c r="F8" s="3" t="s">
-        <v>60</v>
+    <row r="8" spans="6:15">
+      <c r="F8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="6:15">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
-      <c r="F10" s="3" t="s">
-        <v>53</v>
+    <row r="10" spans="6:15">
+      <c r="F10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="6:15">
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
-      <c r="F12" s="3" t="s">
-        <v>67</v>
+    <row r="12" spans="6:15">
+      <c r="F12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
-      <c r="F13" s="3" t="s">
-        <v>54</v>
+    <row r="13" spans="6:15">
+      <c r="F13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:16">
-      <c r="F14" s="3" t="s">
+    <row r="14" spans="6:15">
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>78</v>
-      </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
-      <c r="F15" s="3" t="s">
-        <v>56</v>
+    <row r="15" spans="6:15">
+      <c r="F15" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:16">
-      <c r="F16" s="3" t="s">
-        <v>57</v>
+    <row r="16" spans="6:15">
+      <c r="F16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
-      <c r="F17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>74</v>
+    <row r="17" ht="13.5" spans="6:15">
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O17">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:15">
-      <c r="F18" s="3" t="s">
-        <v>58</v>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:15">
-      <c r="F19" s="3" t="s">
-        <v>59</v>
+      <c r="F19" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1569,317 +2129,406 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="49.0380952380952" customWidth="1"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="4:8">
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="6:7">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="F11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>110</v>
+      <c r="G31" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E011747-42EB-3D41-84FB-650953276964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="541" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="162">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -59,6 +53,9 @@
     <t>IS_WITHIN</t>
   </si>
   <si>
+    <t>choerodon.route.develop.app-service</t>
+  </si>
+  <si>
     <t>/devops/app-service</t>
   </si>
   <si>
@@ -74,6 +71,33 @@
     <t>page</t>
   </si>
   <si>
+    <t>choerodon.route.develop.app-service.version</t>
+  </si>
+  <si>
+    <t>/devops/app-service/version</t>
+  </si>
+  <si>
+    <t>服务版本tab</t>
+  </si>
+  <si>
+    <t>choerodon.route.develop.app-service.permission</t>
+  </si>
+  <si>
+    <t>/devops/app-service/permission</t>
+  </si>
+  <si>
+    <t>权限分配tab</t>
+  </si>
+  <si>
+    <t>choerodon.route.develop.app-service.share</t>
+  </si>
+  <si>
+    <t>/devops/app-service/share</t>
+  </si>
+  <si>
+    <t>共享设置tab</t>
+  </si>
+  <si>
     <t>choerodon.route.develop.code-management</t>
   </si>
   <si>
@@ -137,6 +161,15 @@
     <t>证书管理路由</t>
   </si>
   <si>
+    <t>choerodon.route.deploy.repository</t>
+  </si>
+  <si>
+    <t>/devops/project-repository</t>
+  </si>
+  <si>
+    <t>仓库路由</t>
+  </si>
+  <si>
     <t>IAM_MENU_B</t>
   </si>
   <si>
@@ -149,6 +182,9 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
+    <t>PARENT_CODE</t>
+  </si>
+  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -176,280 +212,14 @@
     <t>wrench</t>
   </si>
   <si>
-    <t>choerodon.code.develop.app-service</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-  </si>
-  <si>
-    <t>代码管理</t>
-  </si>
-  <si>
-    <t>Code Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-  </si>
-  <si>
-    <t>Deployment Operation</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-  </si>
-  <si>
-    <t>环境配置</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-  </si>
-  <si>
-    <t>集群</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-  </si>
-  <si>
-    <t>证书管理</t>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>AGILE</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.create</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.update</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.importAppService</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pagePermissionUsers</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listResourceEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageTagsByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.checkTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.deleteBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.updateBranchIssue</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageBranchByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application.getSonarQube</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.queryUrl</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.listMergeRequest</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByActive</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-record.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTreeMenu</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
-  </si>
-  <si>
-    <t>devops-service.project-certification.pageOrgCert</t>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service.version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.code-management</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service.permission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service.share</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/app-service/version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/app-service/permission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/app-service/share</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务版本tab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限分配tab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享设置tab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.code.develop.app-service.version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.permission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.share</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>应用服务</t>
     </r>
@@ -461,14 +231,22 @@
       </rPr>
       <t>-服务版本</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.permission</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>应用服务</t>
     </r>
@@ -480,14 +258,19 @@
       </rPr>
       <t>-权限管理</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.share</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>应用服务</t>
     </r>
@@ -499,68 +282,286 @@
       </rPr>
       <t>-共享设置</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Share</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+  </si>
+  <si>
+    <t>Code Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+  </si>
+  <si>
+    <t>环境配置</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.repository</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.repository</t>
   </si>
   <si>
     <t>DEFAULT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>organization_project</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>#ROLE_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>#PERMISSION_CODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>$DEL</t>
   </si>
   <si>
     <t>role/project/default/administrator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.develop.repository</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.importAppService</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pagePermissionUsers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listResourceEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageTagsByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.updateBranchIssue</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageBranchByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryUrl</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listMergeRequest</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-record.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTreeMenu</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.pageOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -574,35 +575,12 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -616,16 +594,363 @@
       <name val="Droid Sans Fallback"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -633,33 +958,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -944,37 +1556,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:O19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,24 +1622,24 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1039,24 +1651,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1068,24 +1680,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>130</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1097,24 +1709,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1126,24 +1738,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1155,24 +1767,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1184,24 +1796,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1213,24 +1825,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1242,24 +1854,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1273,22 +1885,22 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1302,22 +1914,22 @@
     </row>
     <row r="18" spans="6:14">
       <c r="F18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1329,10 +1941,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="6:12">
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1341,36 +1975,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D5:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D5:P23"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:16" ht="11" customHeight="1"/>
-    <row r="6" spans="4:16" ht="18" customHeight="1"/>
-    <row r="7" spans="4:16" ht="19" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1379,308 +2014,308 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="4:16">
+    <row r="8" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
         <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s">
-        <v>143</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s">
-        <v>143</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>137</v>
+        <v>71</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
         <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" t="s">
-        <v>143</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="4:16">
+    <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
+    <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="4:16">
+    <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -1688,31 +2323,31 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -1720,31 +2355,31 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="O18">
         <v>30</v>
@@ -1752,31 +2387,31 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" t="s">
-        <v>53</v>
-      </c>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -1784,28 +2419,28 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>104</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -1813,31 +2448,31 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="O21">
         <v>10</v>
@@ -1845,40 +2480,71 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="O22">
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="6:15">
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1887,753 +2553,821 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9D4F9E-8CAB-8D4C-A14A-EFE01F2BFA66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.6" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.59765625" customWidth="1"/>
-    <col min="8" max="8" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="53.6" customWidth="1"/>
+    <col min="8" max="8" width="27.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
-      <c r="D7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>150</v>
+      <c r="F7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="4:8">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="4:8">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>151</v>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="4:8">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>151</v>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="4:8">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="4:8">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="4:8">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="4:8">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="541" activeTab="4"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="172">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -161,13 +161,25 @@
     <t>证书管理路由</t>
   </si>
   <si>
-    <t>choerodon.route.deploy.repository</t>
+    <t>choerodon.route.project.general-repository</t>
   </si>
   <si>
     <t>/devops/project-repository</t>
   </si>
   <si>
-    <t>仓库路由</t>
+    <t>项目层仓库tab路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.general-repository</t>
+  </si>
+  <si>
+    <t>/devops/repository</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>组织层仓库tab路由</t>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -410,7 +422,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>choerodon.code.deploy.repository</t>
+    <t>choerodon.code.project.general-repository</t>
   </si>
   <si>
     <t>仓库</t>
@@ -422,6 +434,12 @@
     <t>choerodon.code.project.general-setting</t>
   </si>
   <si>
+    <t>choerodon.code.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-setting</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -461,9 +479,6 @@
     <t>role/project/default/administrator</t>
   </si>
   <si>
-    <t>choerodon.route.develop.repository</t>
-  </si>
-  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -549,6 +564,21 @@
   </si>
   <si>
     <t>devops-service.devops-project-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
   </si>
 </sst>
 </file>
@@ -556,9 +586,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -605,17 +635,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,61 +650,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,9 +681,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,23 +773,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,14 +783,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -765,7 +795,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,49 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,61 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,19 +897,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,13 +957,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +993,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,20 +1030,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,172 +1069,168 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:O19"/>
+  <dimension ref="D7:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1941,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:12">
+    <row r="19" spans="6:14">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1961,6 +1991,41 @@
         <v>16</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
@@ -1977,10 +2042,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:P23"/>
+  <dimension ref="D5:P24"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2005,7 +2070,7 @@
     <row r="6" ht="18" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2014,58 +2079,58 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2073,13 +2138,13 @@
     </row>
     <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2094,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -2105,13 +2170,13 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -2126,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -2137,13 +2202,13 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
@@ -2158,7 +2223,7 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -2169,13 +2234,13 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -2184,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -2201,13 +2266,13 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -2216,16 +2281,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>40</v>
@@ -2233,28 +2298,28 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O14">
         <v>40</v>
@@ -2262,28 +2327,28 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O15">
         <v>10</v>
@@ -2291,13 +2356,13 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -2306,16 +2371,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -2323,13 +2388,13 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -2338,16 +2403,16 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -2355,13 +2420,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2370,16 +2435,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O18">
         <v>30</v>
@@ -2387,13 +2452,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
@@ -2402,16 +2467,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -2419,28 +2484,28 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -2448,13 +2513,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2463,16 +2528,16 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O21">
         <v>10</v>
@@ -2480,13 +2545,13 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
         <v>44</v>
@@ -2495,16 +2560,16 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O22">
         <v>20</v>
@@ -2512,13 +2577,13 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
@@ -2527,19 +2592,51 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
         <v>13</v>
       </c>
       <c r="O23">
         <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2555,10 +2652,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H39"/>
+  <dimension ref="D7:H40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2571,27 +2668,27 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -2599,10 +2696,10 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2610,10 +2707,10 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2621,10 +2718,10 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2632,10 +2729,10 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2643,10 +2740,10 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2654,10 +2751,10 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2665,10 +2762,10 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2676,10 +2773,10 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2687,10 +2784,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2698,10 +2795,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2709,10 +2806,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2720,10 +2817,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2731,10 +2828,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2742,10 +2839,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2753,10 +2850,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2764,178 +2861,189 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +3058,7 @@
   <dimension ref="D7:H21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2964,26 +3072,26 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2994,7 +3102,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -3005,7 +3113,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -3016,18 +3124,22 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="4:8">
@@ -3102,10 +3214,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H36"/>
+  <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3120,249 +3232,289 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59F456-712A-0E48-ABF5-592D1251A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="541"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
-    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId3"/>
-    <sheet name="IAM_ROLE_PERMISSION" sheetId="5" r:id="rId4"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId5"/>
+    <sheet name="FD_REPORT" sheetId="6" r:id="rId2"/>
+    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="5" r:id="rId5"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="186">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -71,33 +78,6 @@
     <t>page</t>
   </si>
   <si>
-    <t>choerodon.route.develop.app-service.version</t>
-  </si>
-  <si>
-    <t>/devops/app-service/version</t>
-  </si>
-  <si>
-    <t>服务版本tab</t>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service.permission</t>
-  </si>
-  <si>
-    <t>/devops/app-service/permission</t>
-  </si>
-  <si>
-    <t>权限分配tab</t>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service.share</t>
-  </si>
-  <si>
-    <t>/devops/app-service/share</t>
-  </si>
-  <si>
-    <t>共享设置tab</t>
-  </si>
-  <si>
     <t>choerodon.route.develop.code-management</t>
   </si>
   <si>
@@ -227,78 +207,15 @@
     <t>choerodon.code.develop.app-service.version</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用服务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-服务版本</t>
-    </r>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
     <t>choerodon.code.develop.app-service.permission</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用服务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-权限管理</t>
-    </r>
-  </si>
-  <si>
-    <t>Permission</t>
-  </si>
-  <si>
     <t>choerodon.code.develop.app-service.share</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用服务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-共享设置</t>
-    </r>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
     <t>choerodon.code.develop.app-service</t>
   </si>
   <si>
@@ -579,19 +496,129 @@
   </si>
   <si>
     <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
+  </si>
+  <si>
+    <t>FD_REPORT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#REPORT_TYPE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ICON</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TITLE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DESCRIPTION</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PATH</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SORT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/submission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/build-number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/build-duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/deploy-times</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/deploy-duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/reports/code-quality</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提交图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码质量图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建次数图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建时长图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署次数图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署时长图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -605,11 +632,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -627,360 +654,42 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -988,251 +697,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1243,65 +710,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1586,37 +1009,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="F2" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="65.8" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1075,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1117,7 @@
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
@@ -1710,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1723,7 +1146,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1739,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1175,7 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
       <c r="K11" t="s">
@@ -1768,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1810,7 +1233,7 @@
       <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
@@ -1826,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1855,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1291,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1884,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15" ht="14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1897,7 +1320,7 @@
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K16" t="s">
@@ -1913,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="14">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1924,10 +1347,10 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
         <v>43</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -1942,96 +1365,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14">
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14">
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2040,37 +1377,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D5:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80F1886-F2BF-FF40-8DD8-44D3F4C18568}">
+  <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="56.2" customWidth="1"/>
-    <col min="7" max="7" width="18.2" customWidth="1"/>
-    <col min="8" max="8" width="27.8" customWidth="1"/>
-    <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6" customWidth="1"/>
-    <col min="11" max="11" width="47.6" customWidth="1"/>
-    <col min="12" max="12" width="25.8" customWidth="1"/>
-    <col min="13" max="13" width="37.8" customWidth="1"/>
-    <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.8" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="7" max="7" width="37.3984375" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="11" customHeight="1"/>
-    <row r="6" ht="18" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1" spans="4:16">
+    <row r="7" spans="4:11">
+      <c r="D7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D5:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:16" ht="11" customHeight="1"/>
+    <row r="6" spans="4:16" ht="18" customHeight="1"/>
+    <row r="7" spans="4:16" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2079,238 +1583,235 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:16" ht="14" customHeight="1">
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16">
       <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16">
       <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16">
+      <c r="F11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15">
-      <c r="F11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>76</v>
+      <c r="G11" t="s">
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16">
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15">
-      <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -2319,27 +1820,30 @@
         <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -2348,21 +1852,21 @@
         <v>66</v>
       </c>
       <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15">
-      <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -2371,155 +1875,155 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O18">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
-      <c r="F20" s="2" t="s">
-        <v>108</v>
+    <row r="20" spans="6:15" ht="14">
+      <c r="F20" t="s">
+        <v>104</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="O20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
-      <c r="F21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
+    <row r="21" spans="6:15" ht="14">
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2528,120 +2032,25 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="O21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15">
-      <c r="F22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15">
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15">
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2649,134 +2058,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:H40"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:H37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.8" customWidth="1"/>
-    <col min="8" max="8" width="28.8" customWidth="1"/>
+    <col min="7" max="7" width="54.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8">
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8">
-      <c r="F11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8">
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8">
-      <c r="F13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2784,10 +2192,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2795,10 +2203,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2806,10 +2214,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2817,10 +2225,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2828,273 +2236,239 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:H21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:H18"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.6" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.6" customWidth="1"/>
-    <col min="8" max="8" width="27.2" customWidth="1"/>
+    <col min="7" max="7" width="53.59765625" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -3102,44 +2476,32 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="4:8">
@@ -3153,21 +2515,21 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="4:8">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="4:8">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="4:8">
@@ -3184,342 +2546,321 @@
       <c r="G18" s="7"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="4:8">
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="4:8">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="4:8">
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7">
+    </row>
+    <row r="12" spans="4:8">
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="14">
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="14">
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59F456-712A-0E48-ABF5-592D1251A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FABFF-9863-6343-9358-B35E2BFD8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="188">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -611,6 +611,14 @@
   </si>
   <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-repository</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-repository</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1380,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80F1886-F2BF-FF40-8DD8-44D3F4C18568}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="200" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1548,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1985,7 +1993,7 @@
     </row>
     <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>105</v>
@@ -2062,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2556,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2819,7 +2827,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
         <v>152</v>
@@ -2827,7 +2835,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
         <v>153</v>
@@ -2835,7 +2843,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
         <v>154</v>
@@ -2843,7 +2851,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
         <v>155</v>
@@ -2851,7 +2859,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
         <v>156</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FABFF-9863-6343-9358-B35E2BFD8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C150A-53F5-1C4A-9CE7-5164A4E10BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -204,18 +204,9 @@
     <t>wrench</t>
   </si>
   <si>
-    <t>choerodon.code.develop.app-service.version</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
-    <t>choerodon.code.develop.app-service.permission</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.share</t>
-  </si>
-  <si>
     <t>choerodon.code.develop.app-service</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
   </si>
   <si>
     <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
@@ -1402,45 +1390,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="4:11">
       <c r="F8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1448,19 +1436,19 @@
     </row>
     <row r="9" spans="4:11">
       <c r="F9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1468,19 +1456,19 @@
     </row>
     <row r="10" spans="4:11">
       <c r="F10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1488,19 +1476,19 @@
     </row>
     <row r="11" spans="4:11">
       <c r="F11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -1508,19 +1496,19 @@
     </row>
     <row r="12" spans="4:11">
       <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
         <v>164</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" t="s">
-        <v>168</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -1528,19 +1516,19 @@
     </row>
     <row r="13" spans="4:11">
       <c r="F13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" t="s">
         <v>176</v>
       </c>
-      <c r="I13" t="s">
-        <v>180</v>
-      </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -1650,13 +1638,13 @@
     </row>
     <row r="9" spans="4:16">
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1671,10 +1659,10 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1682,13 +1670,13 @@
     </row>
     <row r="10" spans="4:16">
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1703,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
         <v>58</v>
@@ -1714,13 +1702,13 @@
     </row>
     <row r="11" spans="4:16">
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1735,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O11">
         <v>40</v>
@@ -1743,19 +1731,19 @@
     </row>
     <row r="12" spans="4:16">
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1764,7 +1752,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -1772,13 +1760,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1787,16 +1775,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -1804,13 +1792,13 @@
     </row>
     <row r="14" spans="4:16">
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1819,16 +1807,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -1836,13 +1824,13 @@
     </row>
     <row r="15" spans="4:16">
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1851,16 +1839,16 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -1868,13 +1856,13 @@
     </row>
     <row r="16" spans="4:16">
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1883,16 +1871,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -1900,19 +1888,19 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1921,7 +1909,7 @@
         <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1929,13 +1917,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1944,16 +1932,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" t="s">
-        <v>96</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1961,13 +1949,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1976,16 +1964,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -1993,13 +1981,13 @@
     </row>
     <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2008,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -2025,13 +2013,13 @@
     </row>
     <row r="21" spans="6:15" ht="14">
       <c r="F21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2040,13 +2028,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -2068,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H37"/>
+  <dimension ref="D7:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2084,24 +2072,24 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>53</v>
@@ -2112,10 +2100,10 @@
     </row>
     <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2123,10 +2111,10 @@
     </row>
     <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2134,10 +2122,10 @@
     </row>
     <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2145,10 +2133,10 @@
     </row>
     <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2156,10 +2144,10 @@
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2167,10 +2155,10 @@
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2178,10 +2166,10 @@
     </row>
     <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2189,10 +2177,10 @@
     </row>
     <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2200,10 +2188,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2211,10 +2199,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2222,10 +2210,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2233,10 +2221,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2244,188 +2232,12 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8">
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8">
-      <c r="F28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="F29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="F32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2454,26 +2266,26 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2484,7 +2296,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2564,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="D11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -2580,289 +2392,289 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="14">
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="14">
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C150A-53F5-1C4A-9CE7-5164A4E10BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B778C-5113-E041-8DF2-A657E68CD6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -204,9 +204,18 @@
     <t>wrench</t>
   </si>
   <si>
+    <t>choerodon.code.develop.app-service.version</t>
+  </si>
+  <si>
     <t>tab</t>
   </si>
   <si>
+    <t>choerodon.code.develop.app-service.permission</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.share</t>
+  </si>
+  <si>
     <t>choerodon.code.develop.app-service</t>
   </si>
   <si>
@@ -339,9 +348,6 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>choerodon.code.project.general-setting</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.general-repository</t>
   </si>
   <si>
@@ -367,6 +373,9 @@
   </si>
   <si>
     <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
@@ -607,6 +616,22 @@
   </si>
   <si>
     <t>choerodon.code.organization.general-repository</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.general-repository</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.general-repository</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="C1" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1305,7 +1330,7 @@
     </row>
     <row r="16" spans="4:15" ht="14">
       <c r="F16" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1334,7 +1359,7 @@
     </row>
     <row r="17" spans="6:14" ht="14">
       <c r="F17" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -1390,45 +1415,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="4:11">
       <c r="F8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1436,19 +1461,19 @@
     </row>
     <row r="9" spans="4:11">
       <c r="F9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1456,19 +1481,19 @@
     </row>
     <row r="10" spans="4:11">
       <c r="F10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1476,19 +1501,19 @@
     </row>
     <row r="11" spans="4:11">
       <c r="F11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -1496,19 +1521,19 @@
     </row>
     <row r="12" spans="4:11">
       <c r="F12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -1516,19 +1541,19 @@
     </row>
     <row r="13" spans="4:11">
       <c r="F13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" t="s">
         <v>179</v>
       </c>
-      <c r="H13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" t="s">
-        <v>176</v>
-      </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -1544,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="H1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1638,13 +1663,13 @@
     </row>
     <row r="9" spans="4:16">
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1659,10 +1684,10 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1670,13 +1695,13 @@
     </row>
     <row r="10" spans="4:16">
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1691,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
         <v>58</v>
@@ -1702,13 +1727,13 @@
     </row>
     <row r="11" spans="4:16">
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1723,7 +1748,7 @@
         <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O11">
         <v>40</v>
@@ -1731,19 +1756,19 @@
     </row>
     <row r="12" spans="4:16">
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1752,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -1760,13 +1785,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1775,16 +1800,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -1792,13 +1817,13 @@
     </row>
     <row r="14" spans="4:16">
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1807,16 +1832,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -1824,13 +1849,13 @@
     </row>
     <row r="15" spans="4:16">
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1839,16 +1864,16 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -1856,13 +1881,13 @@
     </row>
     <row r="16" spans="4:16">
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1871,16 +1896,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -1888,19 +1913,19 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1909,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1917,13 +1942,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1932,16 +1957,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1949,13 +1974,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1964,16 +1989,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -1981,28 +2006,28 @@
     </row>
     <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -2013,13 +2038,13 @@
     </row>
     <row r="21" spans="6:15" ht="14">
       <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2028,13 +2053,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -2056,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H21"/>
+  <dimension ref="D7:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2072,24 +2097,24 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>53</v>
@@ -2100,10 +2125,10 @@
     </row>
     <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2111,10 +2136,10 @@
     </row>
     <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2122,10 +2147,10 @@
     </row>
     <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2133,10 +2158,10 @@
     </row>
     <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2144,10 +2169,10 @@
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2155,10 +2180,10 @@
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2166,10 +2191,10 @@
     </row>
     <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2177,10 +2202,10 @@
     </row>
     <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2188,10 +2213,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2199,10 +2224,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2210,10 +2235,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2221,10 +2246,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2232,12 +2257,188 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2252,7 +2453,7 @@
   <dimension ref="D7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2266,26 +2467,26 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2296,7 +2497,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2374,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:H41"/>
+  <dimension ref="D7:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="D17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2392,289 +2593,305 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="14">
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="14">
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B778C-5113-E041-8DF2-A657E68CD6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="187">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -66,100 +60,187 @@
     <t>/devops/app-service</t>
   </si>
   <si>
+    <t>devops-service</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>应用服务路由</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>choerodon.route.develop.code-management</t>
+  </si>
+  <si>
+    <t>/devops/code-management</t>
+  </si>
+  <si>
+    <t>代码管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>/devops/deployment-operation</t>
+  </si>
+  <si>
+    <t>部署路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.resource</t>
+  </si>
+  <si>
+    <t>/devops/resource</t>
+  </si>
+  <si>
+    <t>资源路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>/devops/pipeline</t>
+  </si>
+  <si>
+    <t>流水线路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.environment</t>
+  </si>
+  <si>
+    <t>/devops/environment</t>
+  </si>
+  <si>
+    <t>环境配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>/devops/cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>/devops/cert-management</t>
+  </si>
+  <si>
+    <t>证书管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.general-repository</t>
+  </si>
+  <si>
+    <t>/devops/project-repository</t>
+  </si>
+  <si>
+    <t>项目层仓库tab路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.general-repository</t>
+  </si>
+  <si>
+    <t>/devops/repository</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>组织层仓库tab路由</t>
+  </si>
+  <si>
+    <t>FD_REPORT</t>
+  </si>
+  <si>
+    <t>#REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>#ICON</t>
+  </si>
+  <si>
+    <t>#TITLE</t>
+  </si>
+  <si>
+    <t>#DESCRIPTION</t>
+  </si>
+  <si>
+    <t>#PATH</t>
+  </si>
+  <si>
+    <t>#SORT</t>
+  </si>
+  <si>
     <t>devops</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>应用服务路由</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>choerodon.route.develop.code-management</t>
-  </si>
-  <si>
-    <t>/devops/code-management</t>
-  </si>
-  <si>
-    <t>代码管理路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.deployment-operation</t>
-  </si>
-  <si>
-    <t>/devops/deployment-operation</t>
-  </si>
-  <si>
-    <t>部署路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.resource</t>
-  </si>
-  <si>
-    <t>/devops/resource</t>
-  </si>
-  <si>
-    <t>资源路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.pipeline</t>
-  </si>
-  <si>
-    <t>/devops/pipeline</t>
-  </si>
-  <si>
-    <t>流水线路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.environment</t>
-  </si>
-  <si>
-    <t>/devops/environment</t>
-  </si>
-  <si>
-    <t>环境配置路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cluster-management</t>
-  </si>
-  <si>
-    <t>/devops/cluster-management</t>
-  </si>
-  <si>
-    <t>集群管理路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cert-management</t>
-  </si>
-  <si>
-    <t>/devops/cert-management</t>
-  </si>
-  <si>
-    <t>证书管理路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.project.general-repository</t>
-  </si>
-  <si>
-    <t>/devops/project-repository</t>
-  </si>
-  <si>
-    <t>项目层仓库tab路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.organization.general-repository</t>
-  </si>
-  <si>
-    <t>/devops/repository</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>组织层仓库tab路由</t>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>代码提交图</t>
+  </si>
+  <si>
+    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
+  </si>
+  <si>
+    <t>/devops/reports/submission</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
+  </si>
+  <si>
+    <t>代码质量图</t>
+  </si>
+  <si>
+    <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
+  </si>
+  <si>
+    <t>/devops/reports/code-quality</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>构建次数图</t>
+  </si>
+  <si>
+    <t>/devops/reports/build-number</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>构建时长图</t>
+  </si>
+  <si>
+    <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
+  </si>
+  <si>
+    <t>/devops/reports/build-duration</t>
+  </si>
+  <si>
+    <t>部署次数图</t>
+  </si>
+  <si>
+    <t>/devops/reports/deploy-times</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>部署时长图</t>
+  </si>
+  <si>
+    <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
+  </si>
+  <si>
+    <t>/devops/reports/deploy-duration</t>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -204,180 +285,183 @@
     <t>wrench</t>
   </si>
   <si>
+    <t>choerodon.code.develop.app-service</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+  </si>
+  <si>
+    <t>Code Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+  </si>
+  <si>
+    <t>环境配置</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-repository</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-setting</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.repository</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
     <t>choerodon.code.develop.app-service.version</t>
   </si>
   <si>
-    <t>tab</t>
-  </si>
-  <si>
     <t>choerodon.code.develop.app-service.permission</t>
   </si>
   <si>
     <t>choerodon.code.develop.app-service.share</t>
   </si>
   <si>
-    <t>choerodon.code.develop.app-service</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-  </si>
-  <si>
-    <t>代码管理</t>
-  </si>
-  <si>
-    <t>Code Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-  </si>
-  <si>
-    <t>Deployment Operation</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-  </si>
-  <si>
-    <t>环境配置</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-  </si>
-  <si>
-    <t>集群</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-  </si>
-  <si>
-    <t>证书管理</t>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-repository</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-setting</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.repository</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
-  </si>
-  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -393,6 +477,9 @@
     <t>role/project/default/administrator</t>
   </si>
   <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -493,153 +580,19 @@
   </si>
   <si>
     <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
-  </si>
-  <si>
-    <t>FD_REPORT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#REPORT_TYPE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ICON</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TITLE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DESCRIPTION</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PATH</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SORT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/submission</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/build-number</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/build-duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/deploy-times</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/deploy-duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/reports/code-quality</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码提交图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码质量图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建次数图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建时长图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署次数图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署时长图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-repository</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-repository</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-setting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.project.general-repository</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.organization.general-repository</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -653,11 +606,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -675,42 +628,360 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -718,9 +989,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -732,20 +1245,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1030,37 +1587,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="190" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
+    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
+    <col min="15" max="1024" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,9 +1650,8 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="4:15">
+    </row>
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1299,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1328,9 +1883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1357,9 +1912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="14">
+    <row r="17" spans="6:14">
       <c r="F17" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -1387,9 +1942,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1398,204 +1952,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80F1886-F2BF-FF40-8DD8-44D3F4C18568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="7" max="7" width="37.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="37.3981481481481" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="K11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D5:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
+    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
+    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
+    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
+    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:16" ht="11" customHeight="1"/>
-    <row r="6" spans="4:16" ht="18" customHeight="1"/>
-    <row r="7" spans="4:16" ht="19" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1604,72 +2160,72 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="4:16" ht="14" customHeight="1">
+    <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1678,30 +2234,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1710,88 +2266,88 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="O10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1800,30 +2356,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:16">
+    <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1832,30 +2388,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
+    <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1864,30 +2420,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:16">
+    <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1896,16 +2452,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -1913,28 +2469,28 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1942,13 +2498,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1957,16 +2513,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1974,13 +2530,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1989,62 +2545,62 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15" ht="14">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15" ht="14">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2053,25 +2609,24 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O21">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2080,132 +2635,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.7962962962963" customWidth="1"/>
+    <col min="8" max="8" width="28.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2213,10 +2769,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2224,10 +2780,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2235,10 +2791,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2246,10 +2802,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2257,236 +2813,237 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.59765625" customWidth="1"/>
-    <col min="8" max="8" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="53.6018518518519" customWidth="1"/>
+    <col min="8" max="8" width="27.2037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2497,7 +3054,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2568,336 +3125,336 @@
       <c r="H18" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
+    <col min="8" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
         <v>186</v>
-      </c>
-      <c r="G42" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -589,10 +589,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -631,15 +631,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,7 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,9 +668,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,37 +698,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,22 +709,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,6 +735,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -796,13 +791,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,55 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,13 +893,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,6 +966,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,21 +995,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1025,30 +1005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,155 +1043,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1246,7 +1241,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1969,28 +1963,28 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2123,10 +2117,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:P21"/>
+  <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2144,12 +2138,13 @@
     <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
-    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
+    <col min="16" max="1023" width="11.6018518518519" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6018518518519"/>
   </cols>
   <sheetData>
     <row r="5" ht="11" customHeight="1"/>
     <row r="6" ht="18" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1" spans="4:16">
+    <row r="7" ht="19" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2186,7 +2181,6 @@
       <c r="O7" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
@@ -3133,23 +3127,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H43"/>
+  <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
     <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
     <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
     <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
-    <col min="8" max="1025" width="11.6018518518519" customWidth="1"/>
+    <col min="8" max="1023" width="11.6018518518519" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6018518518519"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>153</v>
       </c>
@@ -3162,7 +3157,6 @@
       <c r="G7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -587,8 +587,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -632,7 +632,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,6 +647,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,23 +689,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,23 +721,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,6 +751,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -775,6 +768,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -791,7 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +821,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,43 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,67 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +911,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -971,7 +929,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,11 +985,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,41 +1059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1085,148 +1085,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2119,8 +2119,8 @@
   <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2633,8 +2633,8 @@
   <sheetPr/>
   <dimension ref="D7:H37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -3004,7 +3004,7 @@
   <dimension ref="D7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I7" sqref="I7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -3129,8 +3129,8 @@
   <sheetPr/>
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="187">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -444,6 +444,15 @@
     <t>GENERAL</t>
   </si>
   <si>
+    <t>choerodon.code.develop.app-service.share</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.permission</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.version</t>
+  </si>
+  <si>
     <t>choerodon.code.develop.repository</t>
   </si>
   <si>
@@ -451,15 +460,6 @@
   </si>
   <si>
     <t>organization_project</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.version</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.permission</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.share</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
@@ -588,9 +588,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -632,14 +632,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,32 +652,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,7 +667,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -721,7 +706,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,7 +722,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +753,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -760,23 +768,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +791,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +881,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,109 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,43 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,57 +1004,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,156 +1027,206 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2119,8 +2119,8 @@
   <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2631,10 +2631,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H37"/>
+  <dimension ref="D7:H42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:N37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -2807,188 +2807,243 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
         <v>146</v>
-      </c>
-      <c r="H35" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
         <v>134</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3004,7 +3059,7 @@
   <dimension ref="D7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -3129,7 +3184,7 @@
   <sheetPr/>
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -587,12 +587,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -627,79 +627,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,9 +667,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,6 +681,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -751,9 +697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +721,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,66 +793,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -863,7 +808,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,103 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,30 +987,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1028,26 +1009,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1082,155 +1043,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1241,6 +1246,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1716,7 +1722,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1861,7 +1867,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -2119,8 +2125,8 @@
   <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2272,14 +2278,14 @@
         <v>87</v>
       </c>
       <c r="O10">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H11" t="s">
@@ -2301,14 +2307,14 @@
         <v>99</v>
       </c>
       <c r="O11">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H12" t="s">
@@ -2433,7 +2439,7 @@
       <c r="F16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>115</v>
       </c>
       <c r="H16" t="s">
@@ -2465,7 +2471,7 @@
       <c r="F17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H17" t="s">
@@ -2633,7 +2639,7 @@
   <sheetPr/>
   <dimension ref="D7:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C9E63-D6A1-8648-8580-25FD7784DF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="186">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -255,344 +261,338 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
-    <t>PARENT_CODE</t>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+  </si>
+  <si>
+    <t>Code Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+  </si>
+  <si>
+    <t>环境配置</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-repository</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-setting</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.share</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.permission</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.version</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.repository</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.importAppService</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pagePermissionUsers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listResourceEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageTagsByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.updateBranchIssue</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageBranchByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryUrl</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listMergeRequest</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-record.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTreeMenu</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.pageOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
+  </si>
+  <si>
+    <t>$SORT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$PARENT_CODE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>wrench</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-  </si>
-  <si>
-    <t>代码管理</t>
-  </si>
-  <si>
-    <t>Code Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-  </si>
-  <si>
-    <t>Deployment Operation</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-  </si>
-  <si>
-    <t>环境配置</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-  </si>
-  <si>
-    <t>集群</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-  </si>
-  <si>
-    <t>证书管理</t>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-repository</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-setting</t>
-  </si>
-  <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-setting</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.share</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.permission</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.version</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.repository</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
-  </si>
-  <si>
-    <t>IAM_ROLE_PERMISSION</t>
-  </si>
-  <si>
-    <t>#ROLE_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>$DEL</t>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.create</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.update</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.importAppService</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pagePermissionUsers</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listResourceEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageTagsByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.checkTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.deleteBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.updateBranchIssue</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageBranchByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application.getSonarQube</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.queryUrl</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.listMergeRequest</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByActive</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-record.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTreeMenu</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
-  </si>
-  <si>
-    <t>devops-service.project-certification.pageOrgCert</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -606,11 +606,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -628,360 +628,30 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -989,251 +659,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1248,61 +676,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1587,36 +971,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
-    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
-    <col min="15" max="1024" width="11.6018518518519" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="15" max="1024" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:14">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1825,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14" ht="14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1912,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="14">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1942,8 +1326,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1952,20 +1337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="17.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="37.3981481481481" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="7" max="7" width="61.19921875" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -1994,7 +1380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -2014,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
         <v>52</v>
       </c>
@@ -2034,7 +1420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
         <v>52</v>
       </c>
@@ -2054,7 +1440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="4:11">
       <c r="F11" t="s">
         <v>52</v>
       </c>
@@ -2074,7 +1460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="4:11">
       <c r="F12" t="s">
         <v>52</v>
       </c>
@@ -2094,7 +1480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="4:11">
       <c r="F13" t="s">
         <v>52</v>
       </c>
@@ -2115,42 +1501,41 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
-    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
-    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
-    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
-    <col min="16" max="1023" width="11.6018518518519" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6018518518519"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1023" width="11.59765625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.59765625"/>
   </cols>
   <sheetData>
-    <row r="5" ht="11" customHeight="1"/>
-    <row r="6" ht="18" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1" spans="4:15">
+    <row r="5" spans="4:15" ht="11" customHeight="1"/>
+    <row r="6" spans="4:15" ht="18" customHeight="1"/>
+    <row r="7" spans="4:15" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2173,59 +1558,59 @@
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="14" customHeight="1">
+      <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N7" t="s">
+      <c r="G8" t="s">
         <v>80</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H8" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="6:15">
-      <c r="F8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2234,30 +1619,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="H10" t="s">
         <v>92</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15">
-      <c r="F10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2266,88 +1651,88 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15" ht="14">
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15" ht="14">
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
         <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" t="s">
-        <v>99</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -2356,30 +1741,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2388,30 +1773,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15">
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -2420,30 +1805,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15" ht="14">
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -2452,45 +1837,45 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:15" ht="14">
       <c r="F17" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -2498,13 +1883,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -2513,16 +1898,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" t="s">
-        <v>121</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2530,13 +1915,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2545,30 +1930,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2577,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
         <v>52</v>
@@ -2592,15 +1977,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:15" ht="14">
       <c r="F21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2609,13 +1994,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
         <v>52</v>
@@ -2625,8 +2010,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2635,133 +2021,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.7962962962963" customWidth="1"/>
-    <col min="8" max="8" width="28.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="54.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="F8" t="s">
-        <v>140</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8">
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8">
-      <c r="F13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2769,10 +2154,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2780,10 +2165,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2791,10 +2176,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2802,10 +2187,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2813,10 +2198,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2824,10 +2209,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2835,10 +2220,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2846,10 +2231,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2857,603 +2242,586 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
         <v>143</v>
-      </c>
-      <c r="H37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.6018518518519" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.6018518518519" customWidth="1"/>
-    <col min="8" max="8" width="27.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="53.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="4:8">
+    </row>
+    <row r="9" spans="4:7">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="4:8">
+    </row>
+    <row r="10" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="4:8">
+    </row>
+    <row r="11" spans="4:7">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="4:8">
+    </row>
+    <row r="12" spans="4:7">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="4:8">
+    </row>
+    <row r="13" spans="4:7">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="4:8">
+    </row>
+    <row r="14" spans="4:7">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="4:8">
+    </row>
+    <row r="15" spans="4:7">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="4:8">
+    </row>
+    <row r="16" spans="4:7">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="4:8">
+    </row>
+    <row r="17" spans="4:7">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="4:8">
+    </row>
+    <row r="18" spans="4:7">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
-    <col min="8" max="1023" width="11.6018518518519" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6018518518519"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1023" width="11.59765625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.59765625"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="F11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="13" spans="4:7">
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="14" spans="4:7">
+      <c r="F14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="15" spans="4:7">
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="16" spans="4:7" ht="14">
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="17" spans="6:7" ht="14">
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3461,55 +2829,56 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C9E63-D6A1-8648-8580-25FD7784DF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="541" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="187">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -261,9 +255,18 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
+    <t>$PARENT_CODE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>ICON</t>
   </si>
   <si>
+    <t>$SORT</t>
+  </si>
+  <si>
     <t>choerodon.code.develop</t>
   </si>
   <si>
@@ -459,6 +462,9 @@
     <t>organization_project</t>
   </si>
   <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -574,25 +580,19 @@
   </si>
   <si>
     <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
-  </si>
-  <si>
-    <t>$SORT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$PARENT_CODE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -606,11 +606,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -627,31 +627,361 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -659,9 +989,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -676,17 +1248,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -971,36 +1587,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
-    <col min="15" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="15" max="1024" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1180,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1238,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1267,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14" ht="14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1296,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="14">
+    <row r="17" spans="6:14">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1326,9 +1942,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1337,21 +1952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" customWidth="1"/>
-    <col min="7" max="7" width="61.19921875" customWidth="1"/>
-    <col min="8" max="8" width="30.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8" customWidth="1"/>
+    <col min="6" max="6" width="43.2" customWidth="1"/>
+    <col min="7" max="7" width="61.2" customWidth="1"/>
+    <col min="8" max="8" width="30.6" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -1380,7 +1996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -1400,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +2036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +2056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
         <v>52</v>
       </c>
@@ -1460,7 +2076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
         <v>52</v>
       </c>
@@ -1480,7 +2096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
         <v>52</v>
       </c>
@@ -1501,41 +2117,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1023" width="11.59765625" customWidth="1"/>
-    <col min="1024" max="1024" width="11.59765625"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1023" width="11.6" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" ht="11" customHeight="1"/>
-    <row r="6" spans="4:15" ht="18" customHeight="1"/>
-    <row r="7" spans="4:15" ht="19" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1558,59 +2175,59 @@
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="14" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1619,30 +2236,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1651,88 +2268,88 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="14">
+    <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="14">
+    <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1741,30 +2358,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1773,30 +2390,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1805,30 +2422,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="14">
+    <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1837,45 +2454,45 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:15" ht="14">
+    <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1883,13 +2500,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1898,16 +2515,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1915,13 +2532,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1930,30 +2547,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15" ht="14">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -1962,13 +2579,13 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N20" t="s">
         <v>52</v>
@@ -1977,15 +2594,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15" ht="14">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
         <v>131</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -1994,13 +2611,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s">
         <v>52</v>
@@ -2010,9 +2627,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2021,132 +2637,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2154,10 +2771,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2165,10 +2782,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2176,10 +2793,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2187,10 +2804,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2198,10 +2815,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2209,10 +2826,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2220,10 +2837,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2231,10 +2848,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2242,243 +2859,442 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.6" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.59765625" customWidth="1"/>
+    <col min="7" max="7" width="53.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2488,7 +3304,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2549,279 +3365,280 @@
       <c r="G18" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1023" width="11.59765625" customWidth="1"/>
-    <col min="1024" max="1024" width="11.59765625"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1023" width="11.6" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" ht="14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -2829,56 +3646,55 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="541" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="188">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -474,10 +474,13 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
-    <t>role/project/default/administrator</t>
+    <t>role/project/default/project-owner</t>
   </si>
   <si>
     <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
   </si>
   <si>
     <t>IAM_MENU_PERMISSION</t>
@@ -587,12 +590,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -632,21 +635,33 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -654,60 +669,82 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -715,66 +752,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -782,7 +767,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -796,7 +804,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,37 +912,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,67 +960,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,61 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,15 +995,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1016,6 +1015,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1025,17 +1033,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,11 +1057,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,160 +1090,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1247,57 +1255,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1595,25 +1604,25 @@
   <sheetPr/>
   <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="65.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
-    <col min="15" max="1024" width="11.6" customWidth="1"/>
+    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
+    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
+    <col min="15" max="1024" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.75" customHeight="1" spans="4:14">
@@ -1664,7 +1673,7 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
@@ -1674,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1703,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1722,7 +1731,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1761,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1790,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1819,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1848,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1867,7 +1876,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1877,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1906,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1935,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1960,14 +1969,14 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="17.8" customWidth="1"/>
-    <col min="6" max="6" width="43.2" customWidth="1"/>
-    <col min="7" max="7" width="61.2" customWidth="1"/>
-    <col min="8" max="8" width="30.6" customWidth="1"/>
+    <col min="4" max="4" width="17.7962962962963" customWidth="1"/>
+    <col min="6" max="6" width="43.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="61.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="30.6018518518519" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -2127,27 +2136,27 @@
   <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="56.2" customWidth="1"/>
-    <col min="7" max="7" width="18.2" customWidth="1"/>
-    <col min="8" max="8" width="27.8" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6" customWidth="1"/>
-    <col min="11" max="11" width="47.6" customWidth="1"/>
-    <col min="12" max="12" width="25.8" customWidth="1"/>
-    <col min="13" max="13" width="37.8" customWidth="1"/>
+    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
+    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
+    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
+    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.8" customWidth="1"/>
-    <col min="16" max="1023" width="11.6" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6"/>
+    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
+    <col min="16" max="1023" width="11.6018518518519" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6018518518519"/>
   </cols>
   <sheetData>
     <row r="5" ht="11" customHeight="1"/>
@@ -2641,16 +2650,16 @@
   <sheetPr/>
   <dimension ref="D7:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.8" customWidth="1"/>
-    <col min="8" max="8" width="28.8" customWidth="1"/>
+    <col min="7" max="7" width="54.7962962962963" customWidth="1"/>
+    <col min="8" max="8" width="28.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -3262,18 +3271,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G18"/>
+  <dimension ref="D7:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="D7:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.6" customWidth="1"/>
+    <col min="5" max="5" width="21.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.6" customWidth="1"/>
+    <col min="7" max="7" width="53.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
@@ -3313,56 +3322,116 @@
     <row r="10" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="4:7">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="4:7">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="4:7">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="4:7">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="4:7">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3375,24 +3444,24 @@
   <sheetPr/>
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.2" customWidth="1"/>
-    <col min="8" max="1023" width="11.6" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6"/>
+    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
+    <col min="8" max="1023" width="11.6018518518519" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6018518518519"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.75" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3409,7 +3478,7 @@
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="6:7">
@@ -3417,7 +3486,7 @@
         <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="6:7">
@@ -3425,7 +3494,7 @@
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="6:7">
@@ -3433,7 +3502,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -3441,7 +3510,7 @@
         <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -3449,7 +3518,7 @@
         <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="6:7">
@@ -3457,7 +3526,7 @@
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="6:7">
@@ -3465,7 +3534,7 @@
         <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="6:7">
@@ -3473,7 +3542,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -3481,7 +3550,7 @@
         <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -3489,7 +3558,7 @@
         <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -3497,7 +3566,7 @@
         <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -3505,7 +3574,7 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -3513,7 +3582,7 @@
         <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -3521,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -3529,7 +3598,7 @@
         <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -3537,7 +3606,7 @@
         <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3545,7 +3614,7 @@
         <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -3553,7 +3622,7 @@
         <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="6:7">
@@ -3561,7 +3630,7 @@
         <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="6:7">
@@ -3569,7 +3638,7 @@
         <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="6:7">
@@ -3577,7 +3646,7 @@
         <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="6:7">
@@ -3585,7 +3654,7 @@
         <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -3593,7 +3662,7 @@
         <v>125</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="6:7">
@@ -3601,7 +3670,7 @@
         <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -3609,7 +3678,7 @@
         <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -3617,7 +3686,7 @@
         <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -3625,7 +3694,7 @@
         <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -3633,7 +3702,7 @@
         <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="6:7">
@@ -3649,7 +3718,7 @@
         <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="6:7">
@@ -3657,7 +3726,7 @@
         <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="6:7">
@@ -3665,7 +3734,7 @@
         <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="6:7">
@@ -3673,7 +3742,7 @@
         <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="6:7">
@@ -3681,7 +3750,7 @@
         <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="6:7">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="188">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -590,10 +590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -645,14 +645,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,10 +688,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,38 +736,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +766,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,13 +804,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +924,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,43 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,79 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1022,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1042,6 +1057,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1053,21 +1077,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,25 +1095,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1113,133 +1113,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2137,7 +2137,7 @@
   <dimension ref="D5:O21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3271,10 +3271,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G21"/>
+  <dimension ref="D7:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="D7:H21"/>
+      <selection activeCell="G20" sqref="D7:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
@@ -3433,6 +3433,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3444,7 +3452,7 @@
   <sheetPr/>
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE56244-4E50-F943-9089-830465610537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="541" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="189">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -583,19 +589,27 @@
   </si>
   <si>
     <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DevOps </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -609,11 +623,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -631,365 +645,35 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -997,251 +681,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1257,61 +699,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1596,36 +994,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
-    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
-    <col min="15" max="1024" width="11.6018518518519" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="15" max="1024" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:14" ht="14">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1863,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1892,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14" ht="14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="14">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1951,8 +1349,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1961,22 +1360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="17.7962962962963" customWidth="1"/>
-    <col min="6" max="6" width="43.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="61.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="30.6018518518519" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="70.3984375" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1"/>
+    <col min="9" max="9" width="44" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -2005,9 +1403,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -2025,9 +1423,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11">
       <c r="F9" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -2045,9 +1443,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11">
       <c r="F10" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
         <v>61</v>
@@ -2065,9 +1463,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="4:11">
       <c r="F11" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
@@ -2085,9 +1483,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="4:11">
       <c r="F12" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
         <v>61</v>
@@ -2105,9 +1503,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="4:11">
       <c r="F13" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
@@ -2126,42 +1524,41 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
-    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
-    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
-    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
-    <col min="16" max="1023" width="11.6018518518519" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6018518518519"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1023" width="11.59765625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.59765625"/>
   </cols>
   <sheetData>
-    <row r="5" ht="11" customHeight="1"/>
-    <row r="6" ht="18" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1" spans="4:15">
+    <row r="5" spans="4:15" ht="11" customHeight="1"/>
+    <row r="6" spans="4:15" ht="18" customHeight="1"/>
+    <row r="7" spans="4:15" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +1596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1" spans="6:15">
+    <row r="8" spans="4:15" ht="14" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>82</v>
       </c>
@@ -2228,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
@@ -2260,7 +1657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
@@ -2292,7 +1689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15" ht="14">
       <c r="F11" s="2" t="s">
         <v>96</v>
       </c>
@@ -2321,7 +1718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15" ht="14">
       <c r="F12" s="2" t="s">
         <v>100</v>
       </c>
@@ -2350,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" s="2" t="s">
         <v>103</v>
       </c>
@@ -2382,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" s="2" t="s">
         <v>106</v>
       </c>
@@ -2414,7 +1811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15">
       <c r="F15" s="2" t="s">
         <v>110</v>
       </c>
@@ -2446,7 +1843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15" ht="14">
       <c r="F16" s="2" t="s">
         <v>114</v>
       </c>
@@ -2478,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:15" ht="14">
       <c r="F17" s="2" t="s">
         <v>118</v>
       </c>
@@ -2571,7 +1968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
         <v>129</v>
       </c>
@@ -2603,7 +2000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:15" ht="14">
       <c r="F21" t="s">
         <v>134</v>
       </c>
@@ -2636,8 +2033,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2646,20 +2044,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.7962962962963" customWidth="1"/>
-    <col min="8" max="8" width="28.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="54.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -2679,7 +2076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>140</v>
       </c>
@@ -2690,7 +2087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>140</v>
       </c>
@@ -2701,7 +2098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>140</v>
       </c>
@@ -2712,7 +2109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>140</v>
       </c>
@@ -2723,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>140</v>
       </c>
@@ -2734,7 +2131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>140</v>
       </c>
@@ -2745,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>140</v>
       </c>
@@ -2756,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>140</v>
       </c>
@@ -2767,7 +2164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>140</v>
       </c>
@@ -3263,26 +2660,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G20" sqref="D7:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.6018518518519" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.6018518518519" customWidth="1"/>
+    <col min="7" max="7" width="53.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
@@ -3409,7 +2805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="4:7">
       <c r="F19" t="s">
         <v>153</v>
       </c>
@@ -3417,7 +2813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="4:7">
       <c r="F20" t="s">
         <v>151</v>
       </c>
@@ -3425,7 +2821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="4:7">
       <c r="F21" t="s">
         <v>151</v>
       </c>
@@ -3433,7 +2829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="4:7">
       <c r="F22" t="s">
         <v>151</v>
       </c>
@@ -3442,32 +2838,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
-    <col min="8" max="1023" width="11.6018518518519" customWidth="1"/>
-    <col min="1024" max="1024" width="11.6018518518519"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1023" width="11.59765625" customWidth="1"/>
+    <col min="1024" max="1024" width="11.59765625"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>154</v>
       </c>
@@ -3481,7 +2876,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="4:7">
       <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
@@ -3489,7 +2884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
@@ -3497,7 +2892,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" s="2" t="s">
         <v>88</v>
       </c>
@@ -3505,7 +2900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" s="2" t="s">
         <v>88</v>
       </c>
@@ -3513,7 +2908,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" s="2" t="s">
         <v>88</v>
       </c>
@@ -3521,7 +2916,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:7">
       <c r="F13" s="2" t="s">
         <v>106</v>
       </c>
@@ -3529,7 +2924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:7">
       <c r="F14" s="2" t="s">
         <v>106</v>
       </c>
@@ -3537,7 +2932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:7">
       <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3545,7 +2940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:7" ht="14">
       <c r="F16" s="2" t="s">
         <v>93</v>
       </c>
@@ -3553,7 +2948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" ht="14">
       <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
@@ -3770,8 +3165,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE56244-4E50-F943-9089-830465610537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D453C9A-AD7E-F84D-B29A-171A37E93A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="199">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -602,6 +602,46 @@
       </rPr>
       <t>报表</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.general-repository</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.general-repository</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.develop.app-service</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.resource</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.develop.code-management</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.deployment-operation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.pipeline</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.environment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cluster-management</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cert-management</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G13"/>
+    <sheetView topLeftCell="D1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1060,7 +1100,7 @@
     </row>
     <row r="8" spans="4:14" ht="14">
       <c r="F8" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1089,7 +1129,7 @@
     </row>
     <row r="9" spans="4:14">
       <c r="F9" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1118,7 +1158,7 @@
     </row>
     <row r="10" spans="4:14">
       <c r="F10" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1147,7 +1187,7 @@
     </row>
     <row r="11" spans="4:14">
       <c r="F11" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1176,7 +1216,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="F12" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1205,7 +1245,7 @@
     </row>
     <row r="13" spans="4:14">
       <c r="F13" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1234,7 +1274,7 @@
     </row>
     <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1263,7 +1303,7 @@
     </row>
     <row r="15" spans="4:14">
       <c r="F15" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1292,7 +1332,7 @@
     </row>
     <row r="16" spans="4:14" ht="14">
       <c r="F16" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1363,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="193" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="193" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2047,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2669,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="D7:G22"/>
+    <sheetView topLeftCell="D2" zoomScale="207" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -2845,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="D7:G43"/>
+  <dimension ref="D7:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2918,10 +2958,10 @@
     </row>
     <row r="13" spans="4:7">
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="4:7">
@@ -2929,47 +2969,47 @@
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" ht="14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
       <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="14">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" ht="14">
       <c r="F18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
+      <c r="G18" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" ht="14">
       <c r="F19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
-        <v>166</v>
+      <c r="G19" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -2977,7 +3017,7 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -2985,7 +3025,7 @@
         <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -2993,7 +3033,7 @@
         <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -3001,7 +3041,7 @@
         <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -3009,7 +3049,7 @@
         <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3017,7 +3057,7 @@
         <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -3025,143 +3065,207 @@
         <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7">
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="31" spans="6:7">
-      <c r="F31" t="s">
-        <v>125</v>
+      <c r="F31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" t="s">
         <v>134</v>
       </c>
-      <c r="G43" t="s">
-        <v>41</v>
+      <c r="G46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D453C9A-AD7E-F84D-B29A-171A37E93A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A28AE7B-C1E0-9F42-A371-5E687911F2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
   </si>
   <si>
-    <t>/devops/reports/submission</t>
-  </si>
-  <si>
     <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
   </si>
   <si>
@@ -207,18 +204,12 @@
     <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
   </si>
   <si>
-    <t>/devops/reports/code-quality</t>
-  </si>
-  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
     <t>构建次数图</t>
   </si>
   <si>
-    <t>/devops/reports/build-number</t>
-  </si>
-  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
   </si>
   <si>
@@ -228,15 +219,9 @@
     <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
   </si>
   <si>
-    <t>/devops/reports/build-duration</t>
-  </si>
-  <si>
     <t>部署次数图</t>
   </si>
   <si>
-    <t>/devops/reports/deploy-times</t>
-  </si>
-  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
   </si>
   <si>
     <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
-  </si>
-  <si>
-    <t>/devops/reports/deploy-duration</t>
   </si>
   <si>
     <t>IAM_MENU_B</t>
@@ -642,6 +624,30 @@
   </si>
   <si>
     <t>choerodon.route.deploy.cert-management</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/submission</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/code-quality</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/build-number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/build-duration</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/deploy-times</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/charts/devops/deploy-duration</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="8" spans="4:14" ht="14">
       <c r="F8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1129,7 +1135,7 @@
     </row>
     <row r="9" spans="4:14">
       <c r="F9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="10" spans="4:14">
       <c r="F10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="11" spans="4:14">
       <c r="F11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1216,7 +1222,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="F12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="13" spans="4:14">
       <c r="F13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1303,7 +1309,7 @@
     </row>
     <row r="15" spans="4:14">
       <c r="F15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="16" spans="4:14" ht="14">
       <c r="F16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1403,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -1414,7 +1420,7 @@
     <col min="7" max="7" width="70.3984375" customWidth="1"/>
     <col min="8" max="8" width="30.59765625" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="46.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -1445,7 +1451,7 @@
     </row>
     <row r="8" spans="4:11">
       <c r="F8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -1457,7 +1463,7 @@
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="9" spans="4:11">
       <c r="F9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1485,19 +1491,19 @@
     </row>
     <row r="10" spans="4:11">
       <c r="F10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="11" spans="4:11">
       <c r="F11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="12" spans="4:11">
       <c r="F12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="13" spans="4:11">
       <c r="F13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -1600,7 +1606,7 @@
     <row r="6" spans="4:15" ht="18" customHeight="1"/>
     <row r="7" spans="4:15" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1609,57 +1615,57 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="14" customHeight="1">
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1667,13 +1673,13 @@
     </row>
     <row r="9" spans="4:15">
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1682,16 +1688,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O9">
         <v>30</v>
@@ -1699,13 +1705,13 @@
     </row>
     <row r="10" spans="4:15">
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1714,16 +1720,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>60</v>
@@ -1731,28 +1737,28 @@
     </row>
     <row r="11" spans="4:15" ht="14">
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -1760,28 +1766,28 @@
     </row>
     <row r="12" spans="4:15" ht="14">
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -1789,13 +1795,13 @@
     </row>
     <row r="13" spans="4:15">
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1804,16 +1810,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -1821,13 +1827,13 @@
     </row>
     <row r="14" spans="4:15">
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1836,16 +1842,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -1853,13 +1859,13 @@
     </row>
     <row r="15" spans="4:15">
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1868,16 +1874,16 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -1885,13 +1891,13 @@
     </row>
     <row r="16" spans="4:15" ht="14">
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1900,16 +1906,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -1917,28 +1923,28 @@
     </row>
     <row r="17" spans="6:15" ht="14">
       <c r="F17" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1946,13 +1952,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1961,16 +1967,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1978,13 +1984,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1993,16 +1999,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -2010,13 +2016,13 @@
     </row>
     <row r="20" spans="6:15" ht="14">
       <c r="F20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2025,13 +2031,13 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
         <v>52</v>
@@ -2042,13 +2048,13 @@
     </row>
     <row r="21" spans="6:15" ht="14">
       <c r="F21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2057,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N21" t="s">
         <v>52</v>
@@ -2101,27 +2107,27 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -2129,10 +2135,10 @@
     </row>
     <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2140,10 +2146,10 @@
     </row>
     <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2151,10 +2157,10 @@
     </row>
     <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2162,10 +2168,10 @@
     </row>
     <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2173,10 +2179,10 @@
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2184,10 +2190,10 @@
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2195,10 +2201,10 @@
     </row>
     <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2206,10 +2212,10 @@
     </row>
     <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2217,10 +2223,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2228,10 +2234,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2239,10 +2245,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2250,10 +2256,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2261,10 +2267,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2272,10 +2278,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2283,10 +2289,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2294,10 +2300,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2305,197 +2311,197 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -2503,197 +2509,197 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H56" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -2723,23 +2729,23 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2749,7 +2755,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2759,7 +2765,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
@@ -2769,7 +2775,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -2779,7 +2785,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -2789,7 +2795,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -2799,7 +2805,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -2809,7 +2815,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
@@ -2819,7 +2825,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -2829,7 +2835,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2839,7 +2845,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -2847,7 +2853,7 @@
     </row>
     <row r="19" spans="4:7">
       <c r="F19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="20" spans="4:7">
       <c r="F20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2863,7 +2869,7 @@
     </row>
     <row r="21" spans="4:7">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="22" spans="4:7">
       <c r="F22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2887,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2904,368 +2910,368 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="6:7" ht="14">
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="6:7" ht="14">
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A28AE7B-C1E0-9F42-A371-5E687911F2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E46B8-94F9-3149-8CAC-372601E046B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,27 +627,27 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/submission</t>
+    <t>/devops/reports/submission</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/code-quality</t>
+    <t>/devops/reports/code-quality</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/build-number</t>
+    <t>/devops/reports/build-number</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/build-duration</t>
+    <t>/devops/reports/build-duration</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/deploy-times</t>
+    <t>/devops/reports/deploy-times</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>/charts/devops/deploy-duration</t>
+    <t>/devops/reports/deploy-duration</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E46B8-94F9-3149-8CAC-372601E046B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="541" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="190">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -183,479 +177,446 @@
     <t>#SORT</t>
   </si>
   <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>代码提交图</t>
-  </si>
-  <si>
-    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
-  </si>
-  <si>
-    <t>代码质量图</t>
-  </si>
-  <si>
-    <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-  </si>
-  <si>
-    <t>构建次数图</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
-  </si>
-  <si>
-    <t>构建时长图</t>
-  </si>
-  <si>
-    <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
-  </si>
-  <si>
-    <t>部署次数图</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-  </si>
-  <si>
-    <t>部署时长图</t>
-  </si>
-  <si>
-    <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
-  </si>
-  <si>
-    <t>IAM_MENU_B</t>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
-    <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>$PARENT_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>$SORT</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>wrench</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service</t>
-  </si>
-  <si>
-    <t>应用服务</t>
-  </si>
-  <si>
-    <t>Application Service</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-  </si>
-  <si>
-    <t>代码管理</t>
-  </si>
-  <si>
-    <t>Code Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-  </si>
-  <si>
-    <t>Deployment Operation</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-  </si>
-  <si>
-    <t>环境配置</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-  </si>
-  <si>
-    <t>集群</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-  </si>
-  <si>
-    <t>证书管理</t>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-repository</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-setting</t>
-  </si>
-  <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-repository</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.general-setting</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.share</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.permission</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service.version</t>
-  </si>
-  <si>
-    <t>choerodon.code.develop.repository</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
-  </si>
-  <si>
-    <t>OFFICIAL</t>
-  </si>
-  <si>
-    <t>IAM_ROLE_PERMISSION</t>
-  </si>
-  <si>
-    <t>#ROLE_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.create</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.update</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.importAppService</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pagePermissionUsers</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listResourceEnvTree</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageTagsByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.checkTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.deleteBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.updateBranchIssue</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.pageBranchByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application.getSonarQube</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.queryUrl</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.listMergeRequest</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByActive</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-record.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTreeMenu</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
-  </si>
-  <si>
-    <t>devops-service.project-certification.pageOrgCert</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">DevOps </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>报表</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.project.general-repository</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.organization.general-repository</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.resource</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.code-management</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.deployment-operation</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.pipeline</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.environment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cluster-management</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cert-management</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOXB4IiBoZWlnaHQ9IjEyNHB4IiB2aWV3Qm94PSIwIDAgMjA5IDEyNCIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxNzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXooagiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSJEZXZPcHPmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zMDguMDAwMDAwLCAtMjczLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeS7o+eggeaPkOS6pOaDheWGtSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDEwMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcuMDAwMDAwLCAyMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE2IiBzdHJva2U9IiMwMDAwMDAiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1vcGFjaXR5PSIwLjA0Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAsNjkuNDQ0NDQ0NCBMMjA3LjEyODQ5Miw2OS40NDQ0NDQ0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw1MS42NjY2NjY3IEwyMDcuMTI4NDkyLDUxLjY2NjY2NjciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDM1IEwyMDcuMTI4NDkyLDM1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNy4yMjIyMjIyIEwyMDcuMTI4NDkyLDE3LjIyMjIyMjIiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDAuNTU1NTU1NTU2IEwyMDcuMTI4NDkyLDAuNTU1NTU1NTU2IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS4xNjY2NjY3LDAgTDM1LjE2NjY2NjcsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY5LjMzMzMzMzMsMCBMNjkuMzMzMzMzMyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTAzLjUsMCBMMTAzLjUsNzAiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzNy42NjY2NjcsMCBMMTM3LjY2NjY2Nyw3MCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTcxLjgzMzMzMywwIEwxNzEuODMzMzMzLDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYsMCBMMjA2LDcwIiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NzA1MDY0IEMyMDEuMzMzMzMzLDMyLjI1ODU2NjkgMTk1LDQxLjE1MjU5NzIgMTg3LDQxLjE1MjU5NzIgQzE3NSw0MS4xNTI1OTcyIDE2Niw5LjE2NjU3ODE0ZS0xNCAxNTEsMS45NTE1ODE2OGUtMTQgQzEzNiwtNS4zODEwMjYwNWUtMTQgMTMwLjY4MDYyMiwzMy4zNzU1MjI5IDEyMywzMy4zNzU1MjI5IEMxMTUuMzE5Mzc4LDMzLjM3NTUyMjkgMTE1LDE0LjQ3MDUwNjQgMTAzLjU2NDI0NiwxNC40NzA1MDY0IEM5Mi4xMjg0OTE2LDE0LjQ3MDUwNjQgODQuMTc1MTI4NSw1MC4wODM5Mjg0IDcwLDUwLjA4MzkyODQgQzU1LjgyNDg3MTUsNTAuMDgzOTI4NCAzOSwzLjcwMzMzNTI5ZS0xNCAyNiwwIEMxNy4zMzMzMzMzLC0yLjQ1MjIzNzg2ZS0xNCA4LjY2NjY2NjY3LDkuNzQ4MDUxODIgMS40MjEwODU0N2UtMTQsMjkuMjQ0MTU1NSBMMCw2MSBMMjA2LDYxIEwyMDYsMTQuNDcwNTA2NCBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiM0Njc3REQiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIwNiwxNC40NDYyNTc0IEMyMDEuMzMzMzMzLDMyLjIwNDUwOTQgMTk1LDQxLjA4MzYzNTUgMTg3LDQxLjA4MzYzNTUgQzE3NSw0MS4wODM2MzU1IDE2Niw5LjE1MTIxNzE5ZS0xNCAxNTEsMS45NDgzMTEzZS0xNCBDMTM2LC01LjM3MjAwODc3ZS0xNCAxMzAuNjgwNjIyLDMzLjMxOTU5MzcgMTIzLDMzLjMxOTU5MzcgQzExNS4zMTkzNzgsMzMuMzE5NTkzNyAxMTUsMTQuNDQ2MjU3NCAxMDMuNTY0MjQ2LDE0LjQ0NjI1NzQgQzkyLjEyODQ5MTYsMTQuNDQ2MjU3NCA4NC4xNzUxMjg1LDUwIDcwLDUwIEM1NS44MjQ4NzE1LDUwIDM5LDMuNjk3MTI5NDFlLTE0IDI2LDAgQzE3LjMzMzMzMzMsLTIuNDQ4MTI4NTFlLTE0IDguNjY2NjY2NjcsOS43MzE3MTY0NyAwLDI5LjE5NTE0OTQiIGlkPSJMaW5lIiBzdHJva2U9IiM0Njc3REQiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA3OC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTYiIHN0cm9rZT0iIzAwMDAwMCIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxNSBMMTAwLDE1IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwyOSBMMTAwLDI5IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0MyBMMTAwLDQzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCwxIEwxMDAsMSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEsMCBMMSw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMzQsMCBMMzQsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTY3LDAgTDY3LDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDAsMCBMMTAwLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1MC41MDAwMDAsIDI1LjUwMDAwMCkgc2NhbGUoLTEsIDEpIHRyYW5zbGF0ZSgtNTAuNTAwMDAwLCAtMjUuNTAwMDAwKSB0cmFuc2xhdGUoMS4wMDAwMDAsIDcuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik03OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzcgTDk4LjQwMTM4ODEsMzcgQzkyLjgwMDQ2MjcsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgWiIgaWQ9IkxpbmUiIGZpbGwtb3BhY2l0eT0iMC40IiBmaWxsPSIjRkY5OTE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik05OSwzNyBDOTMsMTIuMzMzMzMzMyA4Ni4zMzMzMzMzLC00LjUwMDEwMzk5ZS0xNCA3OSwtNS42ODQzNDE4OWUtMTQgQzY4LC03LjU3MTgwMTI1ZS0xNCA1OCwyOCA0NywyOCBDMzQsMjggMzMsMTUgMjMsMTUgQzE2LjMzMzMzMzMsMTUgOC42NjY2NjY2NywyMi4zMzMzMzMzIDAsMzciIGlkPSJMaW5lIiBzdHJva2U9IiNGRjk5MTUiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwNy4wMDAwMDAsIDc4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgc3Ryb2tlPSIjMDAwMDAwIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBzdHJva2Utb3BhY2l0eT0iMC4wNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDE1IEwxMDAsMTUiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDI5IEwxMDAsMjkiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDQzIEwxMDAsNDMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLDEgTDEwMCwxIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMSwwIEwxLDQ0IiBpZD0iTGluZS02Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNCwwIEwzNCw0NCIgaWQ9IkxpbmUtNiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjcsMCBMNjcsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwMCwwIEwxMDAsNDQiIGlkPSJMaW5lLTYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEuMDAwMDAwLCA5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTguNDAxMzg4MSwxOS4wOTM5NjU2IEM5NS40NjcxMjk0LDE1LjAzMTMyMTkgOTIuMzMzMzMzMywxMyA4OSwxMyBDODQsMTMgNzAsMjggNjIsMjggQzQzLDI4IDM3LDAgMjUsMCBDMTcsMy40ODQ3MTgxNmUtMTYgOC42NjY2NjY2NywxMS42NjY2NjY3IDAsMzUgTDk4LjQwMTM4ODEsMzUgTDk4LjQwMTM4ODEsMTkuMDkzOTY1NiBaIiBpZD0iTGluZSIgZmlsbC1vcGFjaXR5PSIwLjQiIGZpbGw9IiNGRjk5MTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTk4LjQwMTM4ODEsMTkuMDkzOTY1NiBDOTUuNDY3MTI5NCwxNS4wMzEzMjE5IDkyLjMzMzMzMzMsMTMgODksMTMgQzg0LDEzIDcwLDI4IDYyLDI4IEM0MywyOCAzNywwIDI1LDAgQzE3LDMuNDg0NzE4MTZlLTE2IDguNjY2NjY2NjcsMTEuNjY2NjY2NyAwLDM1IiBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>代码提交图</t>
+  </si>
+  <si>
+    <t>跟踪项目下团队与个人的代码提交情况。这有助于了解团队的整体效率与个人效率。</t>
   </si>
   <si>
     <t>/devops/reports/submission</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIyMDgiIGhlaWdodD0iMTIyIiB2aWV3Qm94PSIwIDAgMjA4IDEyMiI+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgIDxyZWN0IHdpZHRoPSIyMDgiIGhlaWdodD0iMzYiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA0IiByeD0iMiIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTcuMyw0IEw4Ljc4OCw0IEwxMi4wODgsMTIuNTY4IEwxMC42ODQsMTIuNTY4IEw5Ljg4LDEwLjM2IEw2LjE5NiwxMC4zNiBMNS4zOTIsMTIuNTY4IEw0LDEyLjU2OCBMNy4zLDQgWiBNNi41OTIsOS4yOCBMOS40ODQsOS4yOCBMOC4wNjgsNS40MDQgTDguMDIsNS40MDQgTDYuNTkyLDkuMjggWiIvPgogICAgPC9nPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDAgMTApIj4KICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgPHBhdGggZmlsbD0iI0YzRjNGMyIgZD0iTTUsNCBMOC45MTIsNCBDOS43NTIsNCAxMC40LDQuMTkyIDEwLjg4LDQuNiBDMTEuMzM2LDQuOTg0IDExLjU2NCw1LjUgMTEuNTY0LDYuMTYgQzExLjU2NCw2LjY0IDExLjQ0NCw3LjA0OCAxMS4yMDQsNy4zODQgQzEwLjk2NCw3LjY5NiAxMC42NCw3LjkzNiAxMC4yMDgsOC4wOTIgQzEwLjc3Miw4LjIgMTEuMjA0LDguNDI4IDExLjQ5Miw4Ljc3NiBDMTEuNzgsOS4xMjQgMTEuOTI0LDkuNTkyIDExLjkyNCwxMC4xNjggQzExLjkyNCwxMS4wMzIgMTEuNjI0LDExLjY1NiAxMS4wMzYsMTIuMDY0IEMxMC41MzIsMTIuNCA5LjgyNCwxMi41NjggOC45MTIsMTIuNTY4IEw1LDEyLjU2OCBMNSw0IFogTTYuMzA4LDUuMDggTDYuMzA4LDcuNjM2IEw4LjU2NCw3LjYzNiBDOS4xNjQsNy42MzYgOS41OTYsNy41MjggOS44Niw3LjMyNCBDMTAuMTI0LDcuMTA4IDEwLjI1Niw2Ljc3MiAxMC4yNTYsNi4zMTYgQzEwLjI1Niw1Ljg4NCAxMC4xMjQsNS41NzIgOS44Niw1LjM4IEM5LjU5Niw1LjE3NiA5LjE2NCw1LjA4IDguNTg4LDUuMDggTDYuMzA4LDUuMDggWiBNNi4zMDgsOC43MDQgTDYuMzA4LDExLjQ4OCBMOC43MzIsMTEuNDg4IEM5LjI4NCwxMS40ODggOS43MTYsMTEuMzkyIDEwLjAyOCwxMS4yMjQgQzEwLjQxMiwxMC45OTYgMTAuNjE2LDEwLjYzNiAxMC42MTYsMTAuMTQ0IEMxMC42MTYsOS42NCAxMC40Niw5LjI2OCAxMC4xNiw5LjA0IEM5Ljg2LDguODEyIDkuMzkyLDguNzA0IDguNzY4LDguNzA0IEw2LjMwOCw4LjcwNCBaIi8+CiAgICA8L2c+CiAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iI0ZGQjEwMCIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgPC9nPgogICAgPGNpcmNsZSBjeD0iMTA0IiBjeT0iMTgiIHI9IjYiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLW9wYWNpdHk9Ii44IiBzdHJva2Utd2lkdGg9IjQiLz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNC4yNjciIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgIDwvZz4KICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iMjEiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMCA0MykiPgogICAgICA8cmVjdCB3aWR0aD0iMjA4IiBoZWlnaHQ9IjM2IiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wNCIgcng9IjIiLz4KICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTIgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iOCIgZmlsbD0iIzAwQkZBNSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik03LjMsNCBMOC43ODgsNCBMMTIuMDg4LDEyLjU2OCBMMTAuNjg0LDEyLjU2OCBMOS44OCwxMC4zNiBMNi4xOTYsMTAuMzYgTDUuMzkyLDEyLjU2OCBMNCwxMi41NjggTDcuMyw0IFogTTYuNTkyLDkuMjggTDkuNDg0LDkuMjggTDguMDY4LDUuNDA0IEw4LjAyLDUuNDA0IEw2LjU5Miw5LjI4IFoiLz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOCkiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiM0RDkwRkUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik01LDQgTDguOTEyLDQgQzkuNzUyLDQgMTAuNCw0LjE5MiAxMC44OCw0LjYgQzExLjMzNiw0Ljk4NCAxMS41NjQsNS41IDExLjU2NCw2LjE2IEMxMS41NjQsNi42NCAxMS40NDQsNy4wNDggMTEuMjA0LDcuMzg0IEMxMC45NjQsNy42OTYgMTAuNjQsNy45MzYgMTAuMjA4LDguMDkyIEMxMC43NzIsOC4yIDExLjIwNCw4LjQyOCAxMS40OTIsOC43NzYgQzExLjc4LDkuMTI0IDExLjkyNCw5LjU5MiAxMS45MjQsMTAuMTY4IEMxMS45MjQsMTEuMDMyIDExLjYyNCwxMS42NTYgMTEuMDM2LDEyLjA2NCBDMTAuNTMyLDEyLjQgOS44MjQsMTIuNTY4IDguOTEyLDEyLjU2OCBMNSwxMi41NjggTDUsNCBaIE02LjMwOCw1LjA4IEw2LjMwOCw3LjYzNiBMOC41NjQsNy42MzYgQzkuMTY0LDcuNjM2IDkuNTk2LDcuNTI4IDkuODYsNy4zMjQgQzEwLjEyNCw3LjEwOCAxMC4yNTYsNi43NzIgMTAuMjU2LDYuMzE2IEMxMC4yNTYsNS44ODQgMTAuMTI0LDUuNTcyIDkuODYsNS4zOCBDOS41OTYsNS4xNzYgOS4xNjQsNS4wOCA4LjU4OCw1LjA4IEw2LjMwOCw1LjA4IFogTTYuMzA4LDguNzA0IEw2LjMwOCwxMS40ODggTDguNzMyLDExLjQ4OCBDOS4yODQsMTEuNDg4IDkuNzE2LDExLjM5MiAxMC4wMjgsMTEuMjI0IEMxMC40MTIsMTAuOTk2IDEwLjYxNiwxMC42MzYgMTAuNjE2LDEwLjE0NCBDMTAuNjE2LDkuNjQgMTAuNDYsOS4yNjggMTAuMTYsOS4wNCBDOS44Niw4LjgxMiA5LjM5Miw4LjcwNCA4Ljc2OCw4LjcwNCBMNi4zMDgsOC43MDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1NikiPgogICAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiNGRkIxMDAiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICAgIDxwYXRoIGZpbGw9IiNGM0YzRjMiIGQ9Ik04LjA4LDQgQzkuMDc2LDQgOS45MDQsNC4yNTIgMTAuNTUyLDQuNzggQzExLjE3Niw1LjI4NCAxMS41Niw1Ljk4IDExLjY5Miw2Ljg0NCBMMTAuNDIsNi44NDQgQzEwLjI3Niw2LjI2OCAxMCw1LjgzNiA5LjU5Miw1LjU2IEM5LjE4NCw1LjI4NCA4LjY4LDUuMTUyIDguMDU2LDUuMTUyIEM3LjEzMiw1LjE1MiA2LjQzNiw1LjQ2NCA1Ljk2OCw2LjEgQzUuNTI0LDYuNjc2IDUuMzA4LDcuNDY4IDUuMzA4LDguNDY0IEM1LjMwOCw5LjQ5NiA1LjUyNCwxMC4yODggNS45NTYsMTAuODUyIEM2LjQxMiwxMS40NTIgNy4xMiwxMS43NTIgOC4wOCwxMS43NTIgQzguNzA0LDExLjc1MiA5LjIzMiwxMS41OTYgOS42NCwxMS4yODQgQzEwLjA3MiwxMC45NDggMTAuMzcyLDEwLjQ0NCAxMC41NCw5Ljc3MiBMMTEuODEyLDkuNzcyIEMxMS42MiwxMC43NjggMTEuMTc2LDExLjU0OCAxMC40NjgsMTIuMTEyIEM5LjgwOCwxMi42NCA5LjAxNiwxMi45MDQgOC4wOTIsMTIuOTA0IEM2LjY4OCwxMi45MDQgNS42MzIsMTIuNDQ4IDQuOTI0LDExLjU2IEM0LjMsMTAuNzkyIDQsOS43NiA0LDguNDY0IEM0LDcuMTkyIDQuMzEyLDYuMTYgNC45Niw1LjM1NiBDNS42OCw0LjQ0NCA2LjcxMiw0IDguMDgsNCBaIi8+CiAgICAgICAgPC9nPgogICAgICA8L2c+CiAgICAgIDxjaXJjbGUgY3g9IjEwNCIgY3k9IjE4IiByPSI2IiBzdHJva2U9IiMwMEJGQTUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSI0Ii8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyNCAxMCkiPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI3IiBzdHJva2U9IiM0RDkwRkUiIHN0cm9rZS1vcGFjaXR5PSIuOCIgc3Ryb2tlLXdpZHRoPSIyIi8+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjQuMjY3IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgIDwvZz4KICAgICAgPHJlY3Qgd2lkdGg9IjMwIiBoZWlnaHQ9IjYiIHg9IjE2NiIgeT0iOSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjIxIiBmaWxsPSIjMDAwIiBmaWxsLW9wYWNpdHk9Ii4wOCIgcng9IjMiLz4KICAgIDwvZz4KICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAgODYpIj4KICAgICAgPHJlY3Qgd2lkdGg9IjIwOCIgaGVpZ2h0PSIzNiIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDQiIHJ4PSIyIi8+CiAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyIDEwKSI+CiAgICAgICAgPGNpcmNsZSBjeD0iOCIgY3k9IjgiIHI9IjgiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iLjgiLz4KICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNy4zLDQgTDguNzg4LDQgTDEyLjA4OCwxMi41NjggTDEwLjY4NCwxMi41NjggTDkuODgsMTAuMzYgTDYuMTk2LDEwLjM2IEw1LjM5MiwxMi41NjggTDQsMTIuNTY4IEw3LjMsNCBaIE02LjU5Miw5LjI4IEw5LjQ4NCw5LjI4IEw4LjA2OCw1LjQwNCBMOC4wMiw1LjQwNCBMNi41OTIsOS4yOCBaIi8+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjgpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNNSw0IEw4LjkxMiw0IEM5Ljc1Miw0IDEwLjQsNC4xOTIgMTAuODgsNC42IEMxMS4zMzYsNC45ODQgMTEuNTY0LDUuNSAxMS41NjQsNi4xNiBDMTEuNTY0LDYuNjQgMTEuNDQ0LDcuMDQ4IDExLjIwNCw3LjM4NCBDMTAuOTY0LDcuNjk2IDEwLjY0LDcuOTM2IDEwLjIwOCw4LjA5MiBDMTAuNzcyLDguMiAxMS4yMDQsOC40MjggMTEuNDkyLDguNzc2IEMxMS43OCw5LjEyNCAxMS45MjQsOS41OTIgMTEuOTI0LDEwLjE2OCBDMTEuOTI0LDExLjAzMiAxMS42MjQsMTEuNjU2IDExLjAzNiwxMi4wNjQgQzEwLjUzMiwxMi40IDkuODI0LDEyLjU2OCA4LjkxMiwxMi41NjggTDUsMTIuNTY4IEw1LDQgWiBNNi4zMDgsNS4wOCBMNi4zMDgsNy42MzYgTDguNTY0LDcuNjM2IEM5LjE2NCw3LjYzNiA5LjU5Niw3LjUyOCA5Ljg2LDcuMzI0IEMxMC4xMjQsNy4xMDggMTAuMjU2LDYuNzcyIDEwLjI1Niw2LjMxNiBDMTAuMjU2LDUuODg0IDEwLjEyNCw1LjU3MiA5Ljg2LDUuMzggQzkuNTk2LDUuMTc2IDkuMTY0LDUuMDggOC41ODgsNS4wOCBMNi4zMDgsNS4wOCBaIE02LjMwOCw4LjcwNCBMNi4zMDgsMTEuNDg4IEw4LjczMiwxMS40ODggQzkuMjg0LDExLjQ4OCA5LjcxNiwxMS4zOTIgMTAuMDI4LDExLjIyNCBDMTAuNDEyLDEwLjk5NiAxMC42MTYsMTAuNjM2IDEwLjYxNiwxMC4xNDQgQzEwLjYxNiw5LjY0IDEwLjQ2LDkuMjY4IDEwLjE2LDkuMDQgQzkuODYsOC44MTIgOS4zOTIsOC43MDQgOC43NjgsOC43MDQgTDYuMzA4LDguNzA0IFoiLz4KICAgICAgICA8L2c+CiAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNTYpIj4KICAgICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI4IiBmaWxsPSIjRkZCMTAwIiBmaWxsLW9wYWNpdHk9Ii44Ii8+CiAgICAgICAgICA8cGF0aCBmaWxsPSIjRjNGM0YzIiBkPSJNOC4wOCw0IEM5LjA3Niw0IDkuOTA0LDQuMjUyIDEwLjU1Miw0Ljc4IEMxMS4xNzYsNS4yODQgMTEuNTYsNS45OCAxMS42OTIsNi44NDQgTDEwLjQyLDYuODQ0IEMxMC4yNzYsNi4yNjggMTAsNS44MzYgOS41OTIsNS41NiBDOS4xODQsNS4yODQgOC42OCw1LjE1MiA4LjA1Niw1LjE1MiBDNy4xMzIsNS4xNTIgNi40MzYsNS40NjQgNS45NjgsNi4xIEM1LjUyNCw2LjY3NiA1LjMwOCw3LjQ2OCA1LjMwOCw4LjQ2NCBDNS4zMDgsOS40OTYgNS41MjQsMTAuMjg4IDUuOTU2LDEwLjg1MiBDNi40MTIsMTEuNDUyIDcuMTIsMTEuNzUyIDguMDgsMTEuNzUyIEM4LjcwNCwxMS43NTIgOS4yMzIsMTEuNTk2IDkuNjQsMTEuMjg0IEMxMC4wNzIsMTAuOTQ4IDEwLjM3MiwxMC40NDQgMTAuNTQsOS43NzIgTDExLjgxMiw5Ljc3MiBDMTEuNjIsMTAuNzY4IDExLjE3NiwxMS41NDggMTAuNDY4LDEyLjExMiBDOS44MDgsMTIuNjQgOS4wMTYsMTIuOTA0IDguMDkyLDEyLjkwNCBDNi42ODgsMTIuOTA0IDUuNjMyLDEyLjQ0OCA0LjkyNCwxMS41NiBDNC4zLDEwLjc5MiA0LDkuNzYgNCw4LjQ2NCBDNCw3LjE5MiA0LjMxMiw2LjE2IDQuOTYsNS4zNTYgQzUuNjgsNC40NDQgNi43MTIsNCA4LjA4LDQgWiIvPgogICAgICAgIDwvZz4KICAgICAgPC9nPgogICAgICA8Y2lyY2xlIGN4PSIxMDQiIGN5PSIxOCIgcj0iNiIgc3Ryb2tlPSIjRjQ0MzM2IiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iNCIvPgogICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxMjQgMTApIj4KICAgICAgICA8Y2lyY2xlIGN4PSI4IiBjeT0iOCIgcj0iNyIgc3Ryb2tlPSIjNEQ5MEZFIiBzdHJva2Utb3BhY2l0eT0iLjgiIHN0cm9rZS13aWR0aD0iMiIvPgogICAgICAgIDxjaXJjbGUgY3g9IjgiIGN5PSI4IiByPSI0LjI2NyIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIuOCIvPgogICAgICA8L2c+CiAgICAgIDxyZWN0IHdpZHRoPSIzMCIgaGVpZ2h0PSI2IiB4PSIxNjYiIHk9IjkiIGZpbGw9IiMwMDAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMyIvPgogICAgICA8cmVjdCB3aWR0aD0iMzAiIGhlaWdodD0iNiIgeD0iMTY2IiB5PSIyMSIgZmlsbD0iIzAwMCIgZmlsbC1vcGFjaXR5PSIuMDgiIHJ4PSIzIi8+CiAgICA8L2c+CiAgPC9nPgo8L3N2Zz4K</t>
+  </si>
+  <si>
+    <t>代码质量图</t>
+  </si>
+  <si>
+    <t>展示项目下所有应用的代码质量详情。这有助于您了解到每个应用的质量情况。</t>
   </si>
   <si>
     <t>/devops/reports/code-quality</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC0yNzUuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCAxMDIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMy4wMDAwMDApIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3LjAwMDAwMCwgNi4wMDAwMDApIiBmaWxsLW9wYWNpdHk9IjAuNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDUzNjczNSwwLjUyOTQxMTc2NSBMOC44NDUzNjczNSwwLjUyOTQxMTc2NSBDOS45NDk5MzY4NSwwLjUyOTQxMTc2NSAxMC44NDUzNjc0LDEuNDI0ODQyMjcgMTAuODQ1MzY3NCwyLjUyOTQxMTc2IEwxMC44NDUzNjc0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDEyLjc2NDcwNTkgTDAuODQ1MzY3MzU0LDIuNTI5NDExNzYgQzAuODQ1MzY3MzU0LDEuNDI0ODQyMjcgMS43NDA3OTc4NSwwLjUyOTQxMTc2NSAyLjg0NTM2NzM1LDAuNTI5NDExNzY1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwLjg0NTM2NzM1NCIgeT0iMTIuNDk0MjM3MiIgd2lkdGg9IjEwIiBoZWlnaHQ9IjM3LjIxMTMwMzciPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDIzLjYwODY5NiwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI2MC43NDA3MTU0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDg2OTU2NSw3LjEwNTQyNzM2ZS0xNCBMOC42MDg2OTU2NSw3LjA4MzIyMjllLTE0IEM5LjcxMzI2NTE1LDcuMDYyOTMyMjhlLTE0IDEwLjYwODY5NTcsMC44OTU0MzA1IDEwLjYwODY5NTcsMiBMMTAuNjA4Njk1NywxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwxMi4yMzUyOTQxIEwwLjYwODY5NTY1MiwyIEMwLjYwODY5NTY1MiwwLjg5NTQzMDUgMS41MDQxMjYxNSw3LjEyNTcxNzk3ZS0xNCAyLjYwODY5NTY1LDcuMTA1NDI3MzZlLTE0IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNDYuNjA4Njk2LCAxMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE0IiB3aWR0aD0iMTAiIGhlaWdodD0iNDUuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC40NzI4OTMzNjYgTDguNjA4Njk1NjUsMC40NzI4OTMzNjYgQzkuNzEzMjY1MTUsMC40NzI4OTMzNjYgMTAuNjA4Njk1NywxLjM2ODMyMzg3IDEwLjYwODY5NTcsMi40NzI4OTMzNyBMMTAuNjA4Njk1NywxNCBMMC42MDg2OTU2NTIsMTQgTDAuNjA4Njk1NjUyLDIuNDcyODkzMzcgQzAuNjA4Njk1NjUyLDEuMzY4MzIzODcgMS41MDQxMjYxNSwwLjQ3Mjg5MzM2NiAyLjYwODY5NTY1LDAuNDcyODkzMzY2IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzAuNjA4Njk2LCAzNS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjEzIiB3aWR0aD0iMTAiIGhlaWdodD0iMjQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NjQ3MDU4ODIgTDguNjA4Njk1NjUsMC43NjQ3MDU4ODIgQzkuNzEzMjY1MTUsMC43NjQ3MDU4ODIgMTAuNjA4Njk1NywxLjY2MDEzNjM4IDEwLjYwODY5NTcsMi43NjQ3MDU4OCBMMTAuNjA4Njk1NywxMyBMMC42MDg2OTU2NTIsMTMgTDAuNjA4Njk1NjUyLDIuNzY0NzA1ODggQzAuNjA4Njk1NjUyLDEuNjYwMTM2MzggMS41MDQxMjYxNSwwLjc2NDcwNTg4MiAyLjYwODY5NTY1LDAuNzY0NzA1ODgyIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTMuNjA4Njk2LCAyMy4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwODY5NTY1LDAuNzk5ODgwNDc1IEw4LjYwODY5NTY1LDAuNzk5ODgwNDc1IEM5LjcxMzI2NTE1LDAuNzk5ODgwNDc1IDEwLjYwODY5NTcsMS42OTUzMTA5OCAxMC42MDg2OTU3LDIuNzk5ODgwNDcgTDEwLjYwODY5NTcsMTUgTDAuNjA4Njk1NjUyLDE1IEwwLjYwODY5NTY1MiwyLjc5OTg4MDQ3IEMwLjYwODY5NTY1MiwxLjY5NTMxMDk4IDEuNTA0MTI2MTUsMC43OTk4ODA0NzUgMi42MDg2OTU2NSwwLjc5OTg4MDQ3NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMC42MDg2OTU2NTIiIHk9IjE1IiB3aWR0aD0iMTAiIGhlaWdodD0iMzQuOTc2MDA5NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xOSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTE2LjYwODY5NiwgNDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAuNjA4Njk1NjUyIiB5PSIxMi45NzYzNTExIiB3aWR0aD0iMTAiIGhlaWdodD0iMTkuOTk5NjU4NSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjA4Njk1NjUsMC43NDEwNTY5NDUgTDguNjA4Njk1NjUsMC43NDEwNTY5NDUgQzkuNzEzMjY1MTUsMC43NDEwNTY5NDUgMTAuNjA4Njk1NywxLjYzNjQ4NzQ1IDEwLjYwODY5NTcsMi43NDEwNTY5NSBMMTAuNjA4Njk1NywxMi45NzYzNTExIEwwLjYwODY5NTY1MiwxMi45NzYzNTExIEwwLjYwODY5NTY1MiwyLjc0MTA1Njk1IEMwLjYwODY5NTY1MiwxLjYzNjQ4NzQ1IDEuNTA0MTI2MTUsMC43NDEwNTY5NDUgMi42MDg2OTU2NSwwLjc0MTA1Njk0NSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNGRkIxMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMjAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0MC42MDg2OTYsIDI5LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1IiB4PSIwIiB5PSIxMi4yMzUyOTQxIiB3aWR0aD0iMTAiIGhlaWdodD0iMzEuNzY0MzY0NCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMCBMOCwtMi4yMjA0NDYwNWUtMTYgQzkuMTA0NTY5NSwtNC4yNDk1MDczZS0xNiAxMCwwLjg5NTQzMDUgMTAsMiBMMTAsMTIuMjM1Mjk0MSBMMCwxMi4yMzUyOTQxIEwwLDIgQy0xLjM1MjcwNzVlLTE2LDAuODk1NDMwNSAwLjg5NTQzMDUsMi4wMjkwNjEyNWUtMTYgMiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0ZGQjEwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTYyLjYwODY5NiwgMTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiIHg9IjAiIHk9IjEyLjIzNTI5NDEiIHdpZHRoPSIxMCIgaGVpZ2h0PSI0OC43NjQzNjQ0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxODQuNjA4Njk2LCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSIgeD0iMCIgeT0iMTIiIHdpZHRoPSIxMCIgaGVpZ2h0PSIxOS45OTk2NTg1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiwwIEw4LC0yLjIyMDQ0NjA1ZS0xNiBDOS4xMDQ1Njk1LC00LjI0OTUwNzNlLTE2IDEwLDAuODk1NDMwNSAxMCwyIEwxMCwxMi4yMzUyOTQxIEwwLDEyLjIzNTI5NDEgTDAsMiBDLTEuMzUyNzA3NWUtMTYsMC44OTU0MzA1IDAuODk1NDMwNSwyLjAyOTA2MTI1ZS0xNiAyLDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRkZCMTAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>构建次数图</t>
   </si>
   <si>
     <t>/devops/reports/build-number</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMwOS4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDM4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE3LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDk2LjAwMDAwMCkiIGZpbGw9IiMwMDAwMDAiIGZpbGwtb3BhY2l0eT0iMC4wOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IlJlY3RhbmdsZS00Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMCIgeT0iMCIgd2lkdGg9IjkwLjQzNDc4MjYiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTAxLjczOTEzIiB5PSIwIiB3aWR0aD0iNDUuMjE3MzkxMyIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNTguMjYwODciIHk9IjAiIHdpZHRoPSI0OS43MzkxMzA0IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTYiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMTMuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTMiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNzguNSBMMjA2LjAyMzY3NCw3OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDU4LjUgTDIwNi4wMjM2NzQsNTguNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwzOS41IEwyMDYuMDIzNjc0LDM5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMTkuNSBMMjA2LjAyMzY3NCwxOS41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDAuNSBMMjA2LjAyMzY3NCwwLjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEzOC41MDk1MTMsMCBMMTM4LjUwOTUxMyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS40ODU4MTYzMywwIEwxLjQ4NTgxNjMzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zNS45ODgxODYsMCBMMzUuOTg4MTg2LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNzIuMDI2MTAxLDAgTDE3Mi4wMjYxMDEsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEwNC4wMDcxNDMsMCBMMTA0LjAwNzE0Myw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMjA2LjUyODQ3LDAgTDIwNi41Mjg0Nyw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjkuNTA0NzczNywwIEw2OS41MDQ3NzM3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJjaGFydCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNS4wMDAwMDAsIDYuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi44NDk0NTEyNSwzMC4wODkzNDk3IEw0Ljg3ODQzNjc2LDMwLjA4OTM0OTcgQzUuOTgzMDA2MjYsMzAuMDg5MzQ5NyA2Ljg3ODQzNjc2LDMwLjk4NDc4MDIgNi44Nzg0MzY3NiwzMi4wODkzNDk3IEw2Ljg3ODQzNjc2LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDcyLjY2NjUzOTEgTDAuODQ5NDUxMjU0LDMyLjA4OTM0OTcgQzAuODQ5NDUxMjU0LDMwLjk4NDc4MDIgMS43NDQ4ODE3NSwzMC4wODkzNDk3IDIuODQ5NDUxMjUsMzAuMDg5MzQ5NyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMyLjU4MjY1MDcsMCBMMzQuNjExNjM2MiwwIEMzNS43MTYyMDU3LC0yLjAyOTA2MTI1ZS0xNiAzNi42MTE2MzYyLDAuODk1NDMwNSAzNi42MTE2MzYyLDIgTDM2LjYxMTYzNjIsNzIuOTc2MDA5NiBMMzAuNTgyNjUwNyw3Mi45NzYwMDk2IEwzMC41ODI2NTA3LDIgQzMwLjU4MjY1MDcsMC44OTU0MzA1IDMxLjQ3ODA4MTIsMi4wMjkwNjEyNWUtMTYgMzIuNTgyNjUwNywwIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjEuNTgyNjUwNywyMC4zNzAyMzk5IEw2My42MTE2MzYyLDIwLjM3MDIzOTkgQzY0LjcxNjIwNTcsMjAuMzcwMjM5OSA2NS42MTE2MzYyLDIxLjI2NTY3MDQgNjUuNjExNjM2MiwyMi4zNzAyMzk5IEw2NS42MTE2MzYyLDcyLjk3NjAwOTYgTDU5LjU4MjY1MDcsNzIuOTc2MDA5NiBMNTkuNTgyNjUwNywyMi4zNzAyMzk5IEM1OS41ODI2NTA3LDIxLjI2NTY3MDQgNjAuNDc4MDgxMiwyMC4zNzAyMzk5IDYxLjU4MjY1MDcsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTc1LjU4MjY1MDcsNDQuMzk4NDQ4OCBMNzcuNjExNjM2Miw0NC4zOTg0NDg4IEM3OC43MTYyMDU3LDQ0LjM5ODQ0ODggNzkuNjExNjM2Miw0NS4yOTM4NzkzIDc5LjYxMTYzNjIsNDYuMzk4NDQ4OCBMNzkuNjExNjM2Miw3Mi45NzYwMDk2IEw3My41ODI2NTA3LDcyLjk3NjAwOTYgTDczLjU4MjY1MDcsNDYuMzk4NDQ4OCBDNzMuNTgyNjUwNyw0NS4yOTM4NzkzIDc0LjQ3ODA4MTIsNDQuMzk4NDQ4OCA3NS41ODI2NTA3LDQ0LjM5ODQ0ODggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMDUuNTgyNjUxLDMyLjk1NjQ0NDYgTDEwNy42MTE2MzYsMzIuOTU2NDQ0NiBDMTA4LjcxNjIwNiwzMi45NTY0NDQ2IDEwOS42MTE2MzYsMzMuODUxODc1MSAxMDkuNjExNjM2LDM0Ljk1NjQ0NDYgTDEwOS42MTE2MzYsNzIuOTc2MDA5NiBMMTAzLjU4MjY1MSw3Mi45NzYwMDk2IEwxMDMuNTgyNjUxLDM0Ljk1NjQ0NDYgQzEwMy41ODI2NTEsMzMuODUxODc1MSAxMDQuNDc4MDgxLDMyLjk1NjQ0NDYgMTA1LjU4MjY1MSwzMi45NTY0NDQ2IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTE5LjU4MjY1MSw1MC4wOTIzOTE4IEwxMjEuNjExNjM2LDUwLjA5MjM5MTggQzEyMi43MTYyMDYsNTAuMDkyMzkxOCAxMjMuNjExNjM2LDUwLjk4NzgyMjMgMTIzLjYxMTYzNiw1Mi4wOTIzOTE4IEwxMjMuNjExNjM2LDcyLjk3NjAwOTYgTDExNy41ODI2NTEsNzIuOTc2MDA5NiBMMTE3LjU4MjY1MSw1Mi4wOTIzOTE4IEMxMTcuNTgyNjUxLDUwLjk4NzgyMjMgMTE4LjQ3ODA4MSw1MC4wOTIzOTE4IDExOS41ODI2NTEsNTAuMDkyMzkxOCBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3LjU4MjY1MDcsNDEuNjkwNTI5NiBMMTkuNjExNjM2Miw0MS42OTA1Mjk2IEMyMC43MTYyMDU3LDQxLjY5MDUyOTYgMjEuNjExNjM2Miw0Mi41ODU5NjAxIDIxLjYxMTYzNjIsNDMuNjkwNTI5NiBMMjEuNjExNjM2Miw3Mi42NjY1MzkxIEwxNS41ODI2NTA3LDcyLjY2NjUzOTEgTDE1LjU4MjY1MDcsNDMuNjkwNTI5NiBDMTUuNTgyNjUwNyw0Mi41ODU5NjAxIDE2LjQ3ODA4MTIsNDEuNjkwNTI5NiAxNy41ODI2NTA3LDQxLjY5MDUyOTYgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik00Ni41ODI2NTA3LDkgTDQ4LjYxMTYzNjIsOSBDNDkuNzE2MjA1Nyw5IDUwLjYxMTYzNjIsOS44OTU0MzA1IDUwLjYxMTYzNjIsMTEgTDUwLjYxMTYzNjIsNzIuOTc2MDA5NiBMNDQuNTgyNjUwNyw3Mi45NzYwMDk2IEw0NC41ODI2NTA3LDExIEM0NC41ODI2NTA3LDkuODk1NDMwNSA0NS40NzgwODEyLDkgNDYuNTgyNjUwNyw5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQ5LjU4MjY1MSwyMC4zNzAyMzk5IEwxNTEuNjExNjM2LDIwLjM3MDIzOTkgQzE1Mi43MTYyMDYsMjAuMzcwMjM5OSAxNTMuNjExNjM2LDIxLjI2NTY3MDQgMTUzLjYxMTYzNiwyMi4zNzAyMzk5IEwxNTMuNjExNjM2LDcyLjk3NjAwOTYgTDE0Ny41ODI2NTEsNzIuOTc2MDA5NiBMMTQ3LjU4MjY1MSwyMi4zNzAyMzk5IEMxNDcuNTgyNjUxLDIxLjI2NTY3MDQgMTQ4LjQ3ODA4MSwyMC4zNzAyMzk5IDE0OS41ODI2NTEsMjAuMzcwMjM5OSBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE2My41ODI2NTEsNDIgTDE2NS42MTE2MzYsNDIgQzE2Ni43MTYyMDYsNDIgMTY3LjYxMTYzNiw0Mi44OTU0MzA1IDE2Ny42MTE2MzYsNDQgTDE2Ny42MTE2MzYsNzIuOTc2MDA5NiBMMTYxLjU4MjY1MSw3Mi45NzYwMDk2IEwxNjEuNTgyNjUxLDQ0IEMxNjEuNTgyNjUxLDQyLjg5NTQzMDUgMTYyLjQ3ODA4MSw0MiAxNjMuNTgyNjUxLDQyIFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNOTAuNTgyNjUwNywzMCBMOTIuNjExNjM2MiwzMCBDOTMuNzE2MjA1NywzMCA5NC42MTE2MzYyLDMwLjg5NTQzMDUgOTQuNjExNjM2MiwzMiBMOTQuNjExNjM2Miw3Mi41NzcxODk1IEw4OC41ODI2NTA3LDcyLjU3NzE4OTUgTDg4LjU4MjY1MDcsMzIgQzg4LjU4MjY1MDcsMzAuODk1NDMwNSA4OS40NzgwODEyLDMwIDkwLjU4MjY1MDcsMzAgWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xMzQuNTgyNjUxLDMgTDEzNi42MTE2MzYsMyBDMTM3LjcxNjIwNiwzIDEzOC42MTE2MzYsMy44OTU0MzA1IDEzOC42MTE2MzYsNSBMMTM4LjYxMTYzNiw3Mi40OTk1NTI0IEwxMzIuNTgyNjUxLDcyLjQ5OTU1MjQgTDEzMi41ODI2NTEsNSBDMTMyLjU4MjY1MSwzLjg5NTQzMDUgMTMzLjQ3ODA4MSwzIDEzNC41ODI2NTEsMyBaIiBpZD0iUmVjdGFuZ2xlLTMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3OC41ODI2NTEsMzIuODY0MDUyOCBMMTgwLjYxMTYzNiwzMi44NjQwNTI4IEMxODEuNzE2MjA2LDMyLjg2NDA1MjggMTgyLjYxMTYzNiwzMy43NTk0ODMzIDE4Mi42MTE2MzYsMzQuODY0MDUyOCBMMTgyLjYxMTYzNiw3Mi44ODM2MTc3IEwxNzYuNTgyNjUxLDcyLjg4MzYxNzcgTDE3Ni41ODI2NTEsMzQuODY0MDUyOCBDMTc2LjU4MjY1MSwzMy43NTk0ODMzIDE3Ny40NzgwODEsMzIuODY0MDUyOCAxNzguNTgyNjUxLDMyLjg2NDA1MjggWiIgaWQ9IlJlY3RhbmdsZS0zIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xOTIuNTgyNjUxLDYxLjQ0MTgwODkgTDE5NC42MTE2MzYsNjEuNDQxODA4OSBDMTk1LjcxNjIwNiw2MS40NDE4MDg5IDE5Ni42MTE2MzYsNjIuMzM3MjM5NCAxOTYuNjExNjM2LDYzLjQ0MTgwODkgTDE5Ni42MTE2MzYsNzIuODgzNjE3NyBMMTkwLjU4MjY1MSw3Mi44ODM2MTc3IEwxOTAuNTgyNjUxLDYzLjQ0MTgwODkgQzE5MC41ODI2NTEsNjIuMzM3MjM5NCAxOTEuNDc4MDgxLDYxLjQ0MTgwODkgMTkyLjU4MjY1MSw2MS40NDE4MDg5IFoiIGlkPSJSZWN0YW5nbGUtMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>构建时长图</t>
+  </si>
+  <si>
+    <t>从应用的维度展示所选时间段某个应用每一次构建的时长。这将帮助您更直观地了解应用构建的效率。</t>
   </si>
   <si>
     <t>/devops/reports/build-duration</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署次数图</t>
   </si>
   <si>
     <t>/devops/reports/deploy-times</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjIwOHB4IiBoZWlnaHQ9IjEyM3B4IiB2aWV3Qm94PSIwIDAgMjA4IDEyMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IuaKpeihqCIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IkRldk9wc+aKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTkxOC4wMDAwMDAsIC02MTEuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2MDguMDAwMDAwLCA0MzguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTUuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iOTAuNDM0NzgyNiIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxMDEuNzM5MTMiIHk9IjAiIHdpZHRoPSI0NS4yMTczOTEzIiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjE1OC4yNjA4NyIgeT0iMCIgd2lkdGg9IjQ5LjczOTEzMDQiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDExMi43OTI0NTMpIiBmaWxsPSIjMDAwMDAwIiBmaWxsLW9wYWNpdHk9IjAuMDgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJSZWN0YW5nbGUtNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjAiIHk9IjAiIHdpZHRoPSI5MC40MzQ3ODI2IiBoZWlnaHQ9IjkiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IHg9IjEwMS43MzkxMyIgeT0iMCIgd2lkdGg9IjQ1LjIxNzM5MTMiIGhlaWdodD0iOSIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iMTU4LjI2MDg3IiB5PSIwIiB3aWR0aD0iNDkuNzM5MTMwNCIgaGVpZ2h0PSI5IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCw3OC41IEwyMDYuMDIzNjc0LDc4LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsNTguNSBMMjA2LjAyMzY3NCw1OC41IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjk3MTU2Mzk4LDM5LjUgTDIwNi4wMjM2NzQsMzkuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS45NzE1NjM5OCwxOS41IEwyMDYuMDIzNjc0LDE5LjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuOTcxNTYzOTgsMC41IEwyMDYuMDIzNjc0LDAuNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTM4LjUwOTUxMywwIEwxMzguNTA5NTEzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xLjQ4NTgxNjMzLDAgTDEuNDg1ODE2MzMsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTM1Ljk4ODE4NiwwIEwzNS45ODgxODYsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE3Mi4wMjYxMDEsMCBMMTcyLjAyNjEwMSw4MCIgaWQ9IkxpbmUtNiIgc3Ryb2tlLW9wYWNpdHk9IjAuMDQiIHN0cm9rZT0iIzAwMDAwMCI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTA0LjAwNzE0MywwIEwxMDQuMDA3MTQzLDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yMDYuNTI4NDcsMCBMMjA2LjUyODQ3LDgwIiBpZD0iTGluZS02IiBzdHJva2Utb3BhY2l0eT0iMC4wNCIgc3Ryb2tlPSIjMDAwMDAwIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik02OS41MDQ3NzM3LDAgTDY5LjUwNDc3MzcsODAiIGlkPSJMaW5lLTYiIHN0cm9rZS1vcGFjaXR5PSIwLjA0IiBzdHJva2U9IiMwMDAwMDAiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTciIHRyYW5zZm9ybT0idHJhbnNsYXRlKDcuMDAwMDAwLCAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNCIgZmlsbD0iIzU3QUFGOCIgZmlsbC1vcGFjaXR5PSIwLjUiIHN0cm9rZT0iIzU3QUFGOCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTAwODk5MyIgY3k9IjQwLjIyMTY3MzUiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgwLjQ5MjM5NzEiIGN5PSIzNC4zMjQ0MTk1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMi4wODc3MTU2IiBjeT0iMjAuODYzMTIzNiIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNjEuMjAyMDIzMSIgY3k9IjIzLjI3NTk5NzQiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjIyLjQ0Njc3MzQiIGN5PSIzMi45MDg2NDIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjgyLjgzNzkxNDkiIGN5PSI0OC44OTYxODA0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIyNi42MjI5MTcyIiBjeT0iMTYuMTkzMTQxMyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOTIuNDIxOTcwNSIgY3k9IjI0Ljc5OTkxNzciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjMxLjg0MzA5NzEiIGN5PSIzMS44NjM5MjMyIiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OC4zODY3NTcyIiBjeT0iMzUuODQ4MzM5OCIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjQuNTM0ODQ1MyIgY3k9IjQzLjM1NTgyOTkiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwNC45MjU2MTUiIGN5PSIyMC4zNzIwMTY1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMzcuMDg3NTE3MSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEwLjY5NzA2MiIgY3k9IjMyLjgwMDQ5OTIiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjQzLjMyNzQ5MjgiIGN5PSI1MC42Njg4NjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI0My4zMjc0OTI4IiBjeT0iMjAuMzcyMDE2NSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjI4MTExNyIgY3k9IjIuNjExNzk2OTgiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjU2Ljg5OTk2MDQiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMjIuNjc0MjI2IiBjeT0iMjIuNDYxNDU0IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI3MC40NzI0MjgiIGN5PSI1NC44NDc3MzY2IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1NC44MTE4ODg0IiBjeT0iNDQuNDAwNTQ4NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTE2LjQxMDAxMSIgY3k9IjY2LjMzOTY0MzMiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY5LjQyODM5MiIgY3k9IjI5Ljc3NDQ4NTYiIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjEwMi44Mzc1NDMiIGN5PSI2Ljc5MDY3MjE1IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzguMzM0NzY2IiBjeT0iNTAuNjY4ODYxNSIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY5LjYxMDA5IiBjeT0iMzEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNjkuNjEwMDkiIGN5PSI0Ni42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE0OC42MTAwOSIgY3k9IjQwLjYxMTc5NyIgcng9IjIuNjEwMDg5OTMiIHJ5PSIyLjYxMTc5Njk4Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTYyLjYxMDA5IiBjeT0iNDEuNjExNzk3IiByeD0iMi42MTAwODk5MyIgcnk9IjIuNjExNzk2OTgiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxNzcuNjEwMDkiIGN5PSI0OS42MTE3OTciIHJ4PSIyLjYxMDA4OTkzIiByeT0iMi42MTE3OTY5OCI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC00IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyLjAyNzk4NCwgMTIuMTY3OTAxKSIgZmlsbD0iIzMyQzZERSIgZmlsbC1vcGFjaXR5PSIwLjQiIHN0cm9rZT0iIzMyQzZERSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMi42MTE3OTY5OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzcuODMxNTUwMSIgY3k9IjM5LjI3MTQwMjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iOC45NjE0NjQ4NiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzkuMTc2OTU0NyIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQuOTMwMTUyNyIgY3k9IjMxLjIxMjc0NjYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjIxLjQ2ODM2NjciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTcuOTc3OTkzMiIgY3k9IjI1LjEwMjM3IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjkxLjQxMjg5NDQiIGN5PSIyNS42NTczMTYzIiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjI1LjU5NTYxMDQiIGN5PSI1Mi44ODU0ODg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9Ijk1LjMxNjk0OCIgY3k9IjQwLjc2MDIxMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNzUuNzQyMTEyNSIgY3k9IjMwLjg5MzUwMzMiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjM1Ljc5NTUyOTEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzEuODIwMjY5MiIgY3k9IjI1LjczODg2NzYiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMzMuOTUzMzYwOCIgY3k9IjE3LjI3OTQxNzEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTA3LjA4MzY3NiIgY3k9IjU5LjE2ODkxMzIiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMjAuMzcyMDE2NSIgY3k9IjEyLjA0MzIzMDEiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTEyLjMwNzI3IiBjeT0iMzkuMjcxNDAyNiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS43MTM1ODAyIiBjeT0iMzguMjI0MTY1MSIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIzOS4xNzY5NTQ3IiBjeT0iMjEuNDY4MzY2NyIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI5OS43NzA2NDQ3IiBjeT0iNTcuMDc0NDM4NCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI1MS42MzEyMzMiIGN5PSIxOS4zNzM4OTE5IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjY2LjMzOTY0MzMiIGN5PSIyLjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iODIuMDEwNDI1MiIgY3k9IjQ3LjY0OTMwMTgiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNDYuNDg5OTg2MyIgY3k9IjMxLjk0MDc0MDciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTMuODAzMDE3OCIgY3k9IjI2LjcwNDU1MzciIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTI2LjMwMzMyNyIgY3k9IjQzLjgxNTM5ODUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iNTkuMDI2NjExOCIgY3k9IjUwLjc5MTAxNCIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSI2NC40NTc1NjIxIiBjeT0iMjUuNzM4ODY3NiIgcng9IjIuNjExNzk2OTgiIHJ5PSIyLjYxODA5MzUiPjwvZWxsaXBzZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxlbGxpcHNlIGlkPSJPdmFsLTIiIGN4PSIxMzUuMjkxMDg0IiBjeT0iNjEuMjYzMzg4IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE1NC42MTE3OTciIGN5PSIzOC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE4MS42MTE3OTciIGN5PSIyMy42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE5MS42MTE3OTciIGN5PSI0MC42MTgwOTM1IiByeD0iMi42MTE3OTY5OCIgcnk9IjIuNjE4MDkzNSI+PC9lbGxpcHNlPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGVsbGlwc2UgaWQ9Ik92YWwtMiIgY3g9IjE2My42MTE3OTciIGN5PSI1LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTY4LjYxMTc5NyIgY3k9IjI2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZWxsaXBzZSBpZD0iT3ZhbC0yIiBjeD0iMTQ0LjYxMTc5NyIgY3k9IjM2LjYxODA5MzUiIHJ4PSIyLjYxMTc5Njk4IiByeT0iMi42MTgwOTM1Ij48L2VsbGlwc2U+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>部署时长图</t>
+  </si>
+  <si>
+    <t>展示该项目下某一环境中各个应用部署时长等部署相关的信息。这将帮助您了解各个应用的部署情况。</t>
   </si>
   <si>
     <t>/devops/reports/deploy-duration</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>$PARENT_CODE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>$SORT</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service</t>
+  </si>
+  <si>
+    <t>应用服务</t>
+  </si>
+  <si>
+    <t>Application Service</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+  </si>
+  <si>
+    <t>Code Management</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+  </si>
+  <si>
+    <t>环境配置</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-repository</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-setting</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.share</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.permission</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service.version</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop.repository</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.importAppService</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pagePermissionUsers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listResourceEnvTree</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageTagsByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.updateBranchIssue</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.pageBranchByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryUrl</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listMergeRequest</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-record.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTreeMenu</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryClustersAndNodes</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.pageOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.devops-organization-config.queryOrganizationDefaultConfig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -669,11 +630,11 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -691,35 +652,360 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -727,11 +1013,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -743,19 +1271,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1040,36 +1611,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
-    <col min="15" max="1024" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="15" max="1024" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,9 +1675,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="14">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1117,7 +1688,7 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
@@ -1133,9 +1704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1162,9 +1733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1175,7 +1746,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1191,9 +1762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1220,9 +1791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1249,9 +1820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1278,9 +1849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1307,9 +1878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1320,7 +1891,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1336,9 +1907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14" ht="14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1365,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="14">
+    <row r="17" spans="6:14">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1395,9 +1966,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1406,21 +1976,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="193" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="70.3984375" customWidth="1"/>
-    <col min="8" max="8" width="30.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8" customWidth="1"/>
+    <col min="6" max="6" width="24.8" customWidth="1"/>
+    <col min="7" max="7" width="70.4" customWidth="1"/>
+    <col min="8" max="8" width="30.6" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="46.796875" customWidth="1"/>
+    <col min="10" max="10" width="46.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -1449,9 +2020,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -1463,150 +2034,151 @@
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="K11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D5:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1023" width="11.59765625" customWidth="1"/>
-    <col min="1024" max="1024" width="11.59765625"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1023" width="11.6" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" ht="11" customHeight="1"/>
-    <row r="6" spans="4:15" ht="18" customHeight="1"/>
-    <row r="7" spans="4:15" ht="19" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1"/>
+    <row r="7" ht="19" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1615,71 +2187,71 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="14" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1688,30 +2260,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1720,88 +2292,88 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="O10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="14">
+    <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="14">
+    <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1810,30 +2382,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1842,30 +2414,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1874,30 +2446,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="14">
+    <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1906,45 +2478,45 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:15" ht="14">
+    <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -1952,13 +2524,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1967,16 +2539,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1984,13 +2556,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -1999,30 +2571,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:15" ht="14">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2031,30 +2603,30 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="O20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15" ht="14">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2063,25 +2635,24 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="O21">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2090,132 +2661,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2223,10 +2795,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2234,10 +2806,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2245,10 +2817,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2256,10 +2828,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2267,10 +2839,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2278,10 +2850,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2289,10 +2861,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2300,10 +2872,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2311,197 +2883,197 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -2509,243 +3081,244 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H49" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="207" workbookViewId="0">
+    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="F2" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.6" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.59765625" customWidth="1"/>
+    <col min="7" max="7" width="53.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2755,7 +3328,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2765,7 +3338,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
@@ -2775,7 +3348,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -2785,7 +3358,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -2795,7 +3368,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -2805,7 +3378,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -2815,7 +3388,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
@@ -2825,7 +3398,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -2835,7 +3408,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2845,439 +3418,439 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E38" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1023" width="11.59765625" customWidth="1"/>
-    <col min="1024" max="1024" width="11.59765625"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1023" width="11.6" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" ht="14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" ht="14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="588"/>
+    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="201">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>证书管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.pv-management</t>
+  </si>
+  <si>
+    <t>/devops/pv-management</t>
+  </si>
+  <si>
+    <t>PV管理路由</t>
   </si>
   <si>
     <t>choerodon.route.project.general-repository</t>
@@ -426,6 +435,18 @@
     <t>description</t>
   </si>
   <si>
+    <t>choerodon.code.deploy.pv-management</t>
+  </si>
+  <si>
+    <t>PV管理</t>
+  </si>
+  <si>
+    <t>PV Management</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
     <t>choerodon.code.project.general-repository</t>
   </si>
   <si>
@@ -574,6 +595,18 @@
   </si>
   <si>
     <t>devops-service.project-certification.pageOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.createPv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.queryAll</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.checkPvName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.deletePv</t>
   </si>
   <si>
     <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
@@ -611,12 +644,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -656,8 +689,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -667,9 +712,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,55 +766,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,8 +788,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,11 +818,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,25 +843,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -820,13 +858,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,49 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,67 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,25 +1020,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,17 +1052,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,50 +1072,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,159 +1095,209 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1271,6 +1309,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1617,10 +1656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:N17"/>
+  <dimension ref="D7:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1746,7 +1785,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1878,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" customFormat="1" spans="6:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1930,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1947,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -1962,6 +2001,35 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +2048,7 @@
   <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="I1" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1996,45 +2064,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -2042,19 +2110,19 @@
     </row>
     <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -2062,19 +2130,19 @@
     </row>
     <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -2082,19 +2150,19 @@
     </row>
     <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -2102,19 +2170,19 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -2122,19 +2190,19 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -2149,10 +2217,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:O21"/>
+  <dimension ref="D5:O22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2178,7 +2246,7 @@
     <row r="6" ht="18" customHeight="1"/>
     <row r="7" ht="19" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2187,57 +2255,57 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2245,13 +2313,13 @@
     </row>
     <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2260,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O9">
         <v>30</v>
@@ -2277,13 +2345,13 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2292,16 +2360,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10">
         <v>60</v>
@@ -2309,28 +2377,28 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -2338,28 +2406,28 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -2367,13 +2435,13 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -2382,16 +2450,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -2399,13 +2467,13 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2414,16 +2482,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2431,13 +2499,13 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -2446,16 +2514,16 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -2463,13 +2531,13 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -2478,16 +2546,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -2495,28 +2563,28 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -2524,13 +2592,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -2539,30 +2607,30 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" customFormat="1" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2571,30 +2639,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="6:15">
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>131</v>
+      <c r="F20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2603,16 +2671,16 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -2620,13 +2688,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -2635,18 +2703,50 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22">
         <v>40</v>
       </c>
     </row>
@@ -2663,10 +2763,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H60"/>
+  <dimension ref="D7:H63"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2679,27 +2779,27 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -2707,10 +2807,10 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2718,10 +2818,10 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2729,10 +2829,10 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2740,10 +2840,10 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2751,10 +2851,10 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2762,10 +2862,10 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2773,10 +2873,10 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2784,10 +2884,10 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2795,10 +2895,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2806,10 +2906,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2817,10 +2917,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2828,10 +2928,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2839,10 +2939,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2850,10 +2950,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2861,10 +2961,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2872,10 +2972,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2883,398 +2983,431 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" t="s">
-        <v>130</v>
+        <v>154</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="6:8">
-      <c r="F43" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>82</v>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>137</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>88</v>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
+        <v>143</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" t="s">
-        <v>130</v>
+        <v>156</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="H59" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3286,10 +3419,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G22"/>
+  <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3302,43 +3435,43 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
@@ -3348,7 +3481,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -3358,7 +3491,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -3368,7 +3501,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -3378,7 +3511,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3388,7 +3521,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
@@ -3398,7 +3531,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -3408,7 +3541,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -3418,7 +3551,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3426,7 +3559,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -3434,7 +3567,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -3442,7 +3575,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3450,10 +3583,18 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3465,10 +3606,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G51"/>
+  <dimension ref="D7:G56"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3484,61 +3625,61 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -3546,23 +3687,23 @@
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -3570,103 +3711,103 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -3674,15 +3815,15 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -3690,15 +3831,15 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
@@ -3706,15 +3847,15 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3722,15 +3863,15 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3738,114 +3879,154 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" customFormat="1" spans="6:7">
       <c r="F40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="6:7">
       <c r="F41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="6:7">
       <c r="F42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7">
+      <c r="F56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" tabRatio="588" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="200">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -150,7 +150,7 @@
     <t>/devops/project-repository</t>
   </si>
   <si>
-    <t>项目层仓库tab路由</t>
+    <t>项目层仓库路由</t>
   </si>
   <si>
     <t>choerodon.route.organization.general-repository</t>
@@ -162,7 +162,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t>组织层仓库tab路由</t>
+    <t>组织层仓库路由</t>
   </si>
   <si>
     <t>FD_REPORT</t>
@@ -456,19 +456,16 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>choerodon.code.project.general-setting</t>
-  </si>
-  <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>devops</t>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>account_balance</t>
   </si>
   <si>
     <t>choerodon.code.organization.general-repository</t>
   </si>
   <si>
-    <t>choerodon.code.organization.general-setting</t>
+    <t>choerodon.code.organization.setting</t>
   </si>
   <si>
     <t>FD_CATEGORY_MENU</t>
@@ -644,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -699,14 +696,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,6 +737,49 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,81 +807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -835,7 +824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +833,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,7 +855,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,43 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,25 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,61 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,9 +1051,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,21 +1071,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,11 +1101,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,151 +1131,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,8 +1655,8 @@
   <sheetPr/>
   <dimension ref="D7:N18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2048,7 +2045,7 @@
   <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="H1" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2216,8 @@
   <sheetPr/>
   <dimension ref="D5:O22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2709,18 +2706,18 @@
         <v>14</v>
       </c>
       <c r="M21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s">
         <v>141</v>
       </c>
-      <c r="N21" t="s">
-        <v>142</v>
-      </c>
       <c r="O21">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>138</v>
@@ -2735,16 +2732,16 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s">
         <v>46</v>
       </c>
       <c r="M22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" t="s">
         <v>141</v>
-      </c>
-      <c r="N22" t="s">
-        <v>142</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -2765,7 +2762,7 @@
   <sheetPr/>
   <dimension ref="D7:H63"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A52" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="E40" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -2779,24 +2776,24 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
         <v>146</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>147</v>
-      </c>
-      <c r="H7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>85</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>91</v>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>96</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>100</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>104</v>
@@ -2851,7 +2848,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>107</v>
@@ -2862,7 +2859,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>110</v>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>114</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>118</v>
@@ -2895,7 +2892,7 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>122</v>
@@ -2906,7 +2903,7 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>126</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>129</v>
@@ -2928,7 +2925,7 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>133</v>
@@ -2939,10 +2936,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2950,10 +2947,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2961,10 +2958,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2972,10 +2969,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2983,7 +2980,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>137</v>
@@ -2994,208 +2991,208 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" t="s">
         <v>154</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
         <v>154</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" t="s">
         <v>154</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
         <v>154</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" t="s">
         <v>137</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -3203,208 +3200,208 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G62" t="s">
         <v>137</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="6:8">
       <c r="F63" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -3421,7 +3418,7 @@
   <sheetPr/>
   <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="E10" workbookViewId="0">
+    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="F10" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3435,23 +3432,23 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -3461,7 +3458,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -3471,7 +3468,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
@@ -3481,7 +3478,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -3491,7 +3488,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -3501,7 +3498,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -3511,7 +3508,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3521,7 +3518,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
@@ -3531,7 +3528,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -3541,7 +3538,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -3551,7 +3548,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3559,7 +3556,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -3608,7 +3605,7 @@
   <sheetPr/>
   <dimension ref="D7:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="G34" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -3625,16 +3622,16 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -3642,7 +3639,7 @@
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="6:7">
@@ -3650,7 +3647,7 @@
         <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="6:7">
@@ -3658,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="6:7">
@@ -3666,7 +3663,7 @@
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -3674,7 +3671,7 @@
         <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -3690,7 +3687,7 @@
         <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="6:7">
@@ -3698,7 +3695,7 @@
         <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="6:7">
@@ -3714,7 +3711,7 @@
         <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -3722,7 +3719,7 @@
         <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -3730,7 +3727,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -3738,7 +3735,7 @@
         <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -3746,7 +3743,7 @@
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -3754,7 +3751,7 @@
         <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -3762,7 +3759,7 @@
         <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -3770,7 +3767,7 @@
         <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3778,7 +3775,7 @@
         <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -3786,7 +3783,7 @@
         <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="6:7">
@@ -3794,7 +3791,7 @@
         <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="6:7">
@@ -3802,7 +3799,7 @@
         <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="6:7">
@@ -3818,7 +3815,7 @@
         <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -3834,7 +3831,7 @@
         <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -3850,7 +3847,7 @@
         <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -3866,7 +3863,7 @@
         <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="6:7">
@@ -3882,7 +3879,7 @@
         <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="6:7">
@@ -3898,7 +3895,7 @@
         <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="6:7">
@@ -3906,7 +3903,7 @@
         <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="6:7">
@@ -3914,7 +3911,7 @@
         <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="6:7">
@@ -3922,7 +3919,7 @@
         <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="6:7">
@@ -3938,7 +3935,7 @@
         <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="6:7">
@@ -3946,7 +3943,7 @@
         <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="6:7">
@@ -3954,7 +3951,7 @@
         <v>137</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="6:7">
@@ -3962,7 +3959,7 @@
         <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="6:7">
@@ -3970,7 +3967,7 @@
         <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="6:7">
@@ -3983,47 +3980,47 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" t="s">
         <v>44</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>PV管理路由</t>
   </si>
   <si>
-    <t>choerodon.route.project.general-repository</t>
+    <t>choerodon.route.project.setting-repository</t>
   </si>
   <si>
     <t>/devops/project-repository</t>
@@ -153,7 +153,7 @@
     <t>项目层仓库路由</t>
   </si>
   <si>
-    <t>choerodon.route.organization.general-repository</t>
+    <t>choerodon.route.organization.setting-repository</t>
   </si>
   <si>
     <t>/devops/repository</t>
@@ -447,7 +447,7 @@
     <t>database</t>
   </si>
   <si>
-    <t>choerodon.code.project.general-repository</t>
+    <t>choerodon.code.project.setting-repository</t>
   </si>
   <si>
     <t>仓库</t>
@@ -462,7 +462,7 @@
     <t>account_balance</t>
   </si>
   <si>
-    <t>choerodon.code.organization.general-repository</t>
+    <t>choerodon.code.organization.setting-repository</t>
   </si>
   <si>
     <t>choerodon.code.organization.setting</t>
@@ -696,13 +696,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -740,17 +739,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,22 +755,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +775,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,17 +802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,6 +811,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,9 +831,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,19 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,25 +957,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,97 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,17 +1046,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1099,6 +1088,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1132,17 +1136,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,10 +1152,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,133 +1164,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,7 +1656,7 @@
   <dimension ref="D7:N18"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2216,8 +2216,8 @@
   <sheetPr/>
   <dimension ref="D5:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2762,8 +2762,8 @@
   <sheetPr/>
   <dimension ref="D7:H63"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3418,8 +3418,8 @@
   <sheetPr/>
   <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3605,8 +3605,8 @@
   <sheetPr/>
   <dimension ref="D7:G56"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="207">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -291,6 +291,9 @@
     <t>$SORT</t>
   </si>
   <si>
+    <t>$DEL</t>
+  </si>
+  <si>
     <t>choerodon.code.develop</t>
   </si>
   <si>
@@ -447,19 +450,37 @@
     <t>database</t>
   </si>
   <si>
+    <t>choerodon.code.project.general-repository</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>account_balance</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.general-repository</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.general-setting</t>
+  </si>
+  <si>
     <t>choerodon.code.project.setting-repository</t>
   </si>
   <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
     <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>account_balance</t>
   </si>
   <si>
     <t>choerodon.code.organization.setting-repository</t>
@@ -642,9 +663,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -696,14 +717,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,10 +761,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,17 +775,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,14 +802,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,6 +821,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -809,30 +844,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,6 +855,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +876,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,121 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,43 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,45 +1067,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1107,16 +1089,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1109,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1152,145 +1173,145 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1655,7 +1676,7 @@
   <sheetPr/>
   <dimension ref="D7:N18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="G4" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2066,7 @@
   <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="I1" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2214,10 +2235,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:O22"/>
+  <dimension ref="D5:P24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2241,7 +2262,7 @@
   <sheetData>
     <row r="5" ht="11" customHeight="1"/>
     <row r="6" ht="18" customHeight="1"/>
-    <row r="7" ht="19" customHeight="1" spans="4:15">
+    <row r="7" ht="19" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2278,31 +2299,34 @@
       <c r="O7" t="s">
         <v>84</v>
       </c>
+      <c r="P7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="6:15">
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2310,13 +2334,13 @@
     </row>
     <row r="9" spans="6:15">
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2325,16 +2349,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9">
         <v>30</v>
@@ -2342,13 +2366,13 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2357,16 +2381,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O10">
         <v>60</v>
@@ -2374,28 +2398,28 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -2403,28 +2427,28 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -2432,13 +2456,13 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -2447,16 +2471,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -2464,13 +2488,13 @@
     </row>
     <row r="14" spans="6:15">
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2479,16 +2503,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2496,13 +2520,13 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -2511,16 +2535,16 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -2528,13 +2552,13 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -2543,16 +2567,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -2560,28 +2584,28 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -2589,13 +2613,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -2604,16 +2628,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2621,13 +2645,13 @@
     </row>
     <row r="19" customFormat="1" spans="6:15">
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2636,16 +2660,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -2653,13 +2677,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -2668,82 +2692,152 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" customFormat="1" spans="6:16">
       <c r="F21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O21">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="6:15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="6:16">
       <c r="F22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O22">
+        <v>40</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24">
         <v>40</v>
       </c>
     </row>
@@ -2762,7 +2856,7 @@
   <sheetPr/>
   <dimension ref="D7:H63"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="E45" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="F30" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -2776,27 +2870,27 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -2804,10 +2898,10 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2815,10 +2909,10 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2826,10 +2920,10 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2837,10 +2931,10 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2848,10 +2942,10 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2859,10 +2953,10 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2870,10 +2964,10 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2881,10 +2975,10 @@
     </row>
     <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2892,10 +2986,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2903,10 +2997,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2914,10 +3008,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2925,10 +3019,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2936,10 +3030,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2947,10 +3041,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2958,10 +3052,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2969,10 +3063,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2980,10 +3074,10 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -2991,208 +3085,208 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -3200,208 +3294,208 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="6:8">
       <c r="F63" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -3418,7 +3512,7 @@
   <sheetPr/>
   <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="E7" workbookViewId="0">
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3432,23 +3526,23 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -3458,7 +3552,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
@@ -3468,7 +3562,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
@@ -3478,7 +3572,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -3488,7 +3582,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -3498,7 +3592,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -3508,7 +3602,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3518,7 +3612,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
@@ -3528,7 +3622,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -3538,7 +3632,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -3548,7 +3642,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3556,7 +3650,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -3564,7 +3658,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -3572,7 +3666,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3580,7 +3674,7 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3588,7 +3682,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -3605,7 +3699,7 @@
   <sheetPr/>
   <dimension ref="D7:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="G34" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -3622,61 +3716,61 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -3684,23 +3778,23 @@
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -3708,103 +3802,103 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -3812,15 +3906,15 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -3828,15 +3922,15 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
@@ -3844,15 +3938,15 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3860,15 +3954,15 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3876,15 +3970,15 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3892,39 +3986,39 @@
     </row>
     <row r="40" customFormat="1" spans="6:7">
       <c r="F40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="6:7">
       <c r="F41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="6:7">
       <c r="F42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" t="s">
         <v>38</v>
@@ -3932,47 +4026,47 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -3980,47 +4074,47 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G55" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G56" t="s">
         <v>44</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -663,9 +663,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -730,9 +730,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,8 +835,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -768,102 +859,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -876,7 +876,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +978,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,61 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,67 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1067,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,6 +1144,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1108,210 +1167,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1676,7 +1676,7 @@
   <sheetPr/>
   <dimension ref="D7:N18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="H4" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="K4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2237,8 +2237,8 @@
   <sheetPr/>
   <dimension ref="D5:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2806,7 +2806,7 @@
         <v>143</v>
       </c>
       <c r="O23">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="6:15">
@@ -3512,8 +3512,8 @@
   <sheetPr/>
   <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3699,7 +3699,7 @@
   <sheetPr/>
   <dimension ref="D7:G56"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E13" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E31" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="635" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="635" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="228">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -576,21 +576,39 @@
     <t>devops-service.devops-git.checkTag</t>
   </si>
   <si>
+    <t>devops-service.devops-git.deleteTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.updateTag</t>
+  </si>
+  <si>
     <t>devops-service.devops-git.createBranch</t>
   </si>
   <si>
     <t>devops-service.devops-git.deleteBranch</t>
   </si>
   <si>
+    <t>devops-service.devops-git.checkName</t>
+  </si>
+  <si>
+    <t>agile-service.issue.queryIssueByOption</t>
+  </si>
+  <si>
     <t>devops-service.devops-git.updateBranchIssue</t>
   </si>
   <si>
     <t>devops-service.devops-git.pageBranchByOptions</t>
   </si>
   <si>
+    <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
+  </si>
+  <si>
     <t>devops-service.pipeline.pageByOptions</t>
   </si>
   <si>
+    <t>devops-service.app-service.getSonarQube</t>
+  </si>
+  <si>
     <t>devops-service.application.getSonarQube</t>
   </si>
   <si>
@@ -603,6 +621,9 @@
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
+    <t>devops-service.app-service.countByActive</t>
+  </si>
+  <si>
     <t>devops-service.devops-deploy-record.pageByOptions</t>
   </si>
   <si>
@@ -615,6 +636,30 @@
     <t>devops-service.project-certification.pageOrgCert</t>
   </si>
   <si>
+    <t>devops-service.project-certification.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.pageProjects</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.assignPermission</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.deleteOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.deletePermissionOfProject</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.project-certification.listAllNonRelatedMembers</t>
+  </si>
+  <si>
     <t>devops-service.devops-pv.createPv</t>
   </si>
   <si>
@@ -625,6 +670,24 @@
   </si>
   <si>
     <t>devops-service.devops-pv.deletePv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.listAllNonRelatedMembers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.pageRelatedProjects</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.deleteRelateProjectById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.assignPermission</t>
   </si>
   <si>
     <t>devops-service.devops-project-config.queryProjectDefaultConfig</t>
@@ -662,10 +725,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -681,11 +744,6 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -708,6 +766,11 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="1"/>
     </font>
     <font>
@@ -717,16 +780,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,24 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,25 +837,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,15 +860,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,33 +901,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -876,7 +939,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,37 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +1035,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,115 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,19 +1135,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1105,6 +1168,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1116,30 +1188,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,165 +1215,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1676,7 +1738,7 @@
   <sheetPr/>
   <dimension ref="D7:N18"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="K4" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1745,7 +1807,7 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
@@ -1803,7 +1865,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -1948,7 +2010,7 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1977,7 +2039,7 @@
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="K16" t="s">
@@ -2006,7 +2068,7 @@
       <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K17" t="s">
@@ -2035,7 +2097,7 @@
       <c r="I18" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K18" t="s">
@@ -2066,7 +2128,7 @@
   <sheetPr/>
   <dimension ref="D7:K13"/>
   <sheetViews>
-    <sheetView zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="193" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2081,28 +2143,28 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2237,8 +2299,8 @@
   <sheetPr/>
   <dimension ref="D5:P24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2400,7 +2462,7 @@
       <c r="F11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H11" t="s">
@@ -2429,7 +2491,7 @@
       <c r="F12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H12" t="s">
@@ -2554,7 +2616,7 @@
       <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>120</v>
       </c>
       <c r="H16" t="s">
@@ -2586,7 +2648,7 @@
       <c r="F17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>124</v>
       </c>
       <c r="H17" t="s">
@@ -2679,7 +2741,7 @@
       <c r="F20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>135</v>
       </c>
       <c r="H20" t="s">
@@ -2711,7 +2773,7 @@
       <c r="F21" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H21" t="s">
@@ -2746,7 +2808,7 @@
       <c r="F22" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H22" t="s">
@@ -2781,7 +2843,7 @@
       <c r="F23" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H23" t="s">
@@ -2813,7 +2875,7 @@
       <c r="F24" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H24" t="s">
@@ -3293,7 +3355,7 @@
       </c>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -3304,7 +3366,7 @@
       </c>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -3315,7 +3377,7 @@
       </c>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -3326,7 +3388,7 @@
       </c>
     </row>
     <row r="48" spans="6:8">
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3337,7 +3399,7 @@
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -3348,7 +3410,7 @@
       </c>
     </row>
     <row r="50" spans="6:8">
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -3359,7 +3421,7 @@
       </c>
     </row>
     <row r="51" spans="6:8">
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -3370,7 +3432,7 @@
       </c>
     </row>
     <row r="52" spans="6:8">
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -3381,7 +3443,7 @@
       </c>
     </row>
     <row r="53" spans="6:8">
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -3392,7 +3454,7 @@
       </c>
     </row>
     <row r="54" spans="6:8">
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -3403,7 +3465,7 @@
       </c>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -3414,7 +3476,7 @@
       </c>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -3425,7 +3487,7 @@
       </c>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -3436,7 +3498,7 @@
       </c>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -3447,7 +3509,7 @@
       </c>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -3458,7 +3520,7 @@
       </c>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -3469,7 +3531,7 @@
       </c>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -3480,7 +3542,7 @@
       </c>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G62" t="s">
@@ -3491,7 +3553,7 @@
       </c>
     </row>
     <row r="63" spans="6:8">
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G63" t="s">
@@ -3512,8 +3574,8 @@
   <sheetPr/>
   <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="207" zoomScaleNormal="207" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3525,23 +3587,23 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="4:7">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>166</v>
       </c>
       <c r="G8" t="s">
@@ -3549,9 +3611,9 @@
       </c>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G9" t="s">
@@ -3559,92 +3621,92 @@
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3697,13 +3759,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G56"/>
+  <dimension ref="D7:H78"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="23.8" customWidth="1"/>
@@ -3714,7 +3776,7 @@
     <col min="1024" max="1024" width="11.6"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:7">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>169</v>
       </c>
@@ -3726,6 +3788,9 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -3805,23 +3870,23 @@
         <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>178</v>
+      <c r="G18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>179</v>
+      <c r="G19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -3829,7 +3894,7 @@
         <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -3837,7 +3902,7 @@
         <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -3845,7 +3910,7 @@
         <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -3853,7 +3918,7 @@
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -3861,7 +3926,7 @@
         <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3869,7 +3934,7 @@
         <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -3877,7 +3942,7 @@
         <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="6:7">
@@ -3885,7 +3950,7 @@
         <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="6:7">
@@ -3893,7 +3958,7 @@
         <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="6:7">
@@ -3901,222 +3966,404 @@
         <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
         <v>189</v>
       </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7">
-      <c r="F32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7">
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7">
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7">
-      <c r="F35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7">
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7">
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="6:7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="6:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="6:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="6:7">
+      <c r="F56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="6:7">
+      <c r="F57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="6:7">
+      <c r="F58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7">
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73" t="s">
         <v>149</v>
       </c>
-      <c r="G55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7">
-      <c r="F56" t="s">
+      <c r="G73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74" t="s">
         <v>149</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7">
+      <c r="F77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="328">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -552,15 +552,87 @@
     <t>devops-service.app-service.create</t>
   </si>
   <si>
+    <t>devops-service.app-service.listAllAppServices</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-version.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.checkCode</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.query</t>
+  </si>
+  <si>
     <t>devops-service.app-service.update</t>
   </si>
   <si>
+    <t>devops-service.app-service.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.checkHarbor</t>
+  </si>
+  <si>
     <t>devops-service.app-service.importAppService</t>
   </si>
   <si>
+    <t>devops-service.app-service.importApp</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listProjectByShare</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listAppServiceGroup</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listServiceTemplates</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.batchCheck</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.delete</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.checkAppService</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.updateActive</t>
+  </si>
+  <si>
     <t>devops-service.app-service.pagePermissionUsers</t>
   </si>
   <si>
+    <t>devops-service.app-service.listNonPermissionUsers</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.deletePermission</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.updatePermission</t>
+  </si>
+  <si>
+    <t>devops-service.app-share-rule.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listProjects</t>
+  </si>
+  <si>
+    <t>devops-service.app-share-rule.create</t>
+  </si>
+  <si>
+    <t>devops-service.app-share-rule.update</t>
+  </si>
+  <si>
+    <t>devops-service.app-share-rule.query</t>
+  </si>
+  <si>
+    <t>devops-service.app-share-rule.delete</t>
+  </si>
+  <si>
     <t>devops-service.devops-environment.listEnvTree</t>
   </si>
   <si>
@@ -627,21 +699,260 @@
     <t>devops-service.devops-deploy-record.pageByOptions</t>
   </si>
   <si>
+    <t xml:space="preserve">devops-service.devops-environment.listByActive
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.pipeline.listPipelineDTO
+</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.queryDeployValue</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.listByEnvAndApp</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.deploy</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.failed</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.retry</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.audit</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.checkAudit</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.deployRemoteApp</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.getRecordById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listByAppServiceIdAndEnvId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project.getAllUsers</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.create</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.update</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.checkDeploy</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.updateIsEnabled</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.delete</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.execute</t>
+  </si>
+  <si>
     <t>devops-service.devops-environment.listEnvTreeMenu</t>
   </si>
   <si>
+    <t>devops-service.devops-environment.listByGroup</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.listByProject</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-group.checkExist</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.deleteCheck</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.queryEnvInfo</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.updateActive</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.deleteDeactivatedEnvironment</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.checkCode</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.checkExist</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkDelete</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-version.queryByProjectId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.retryByGitOps</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-file-error.pageByEnvId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.queryEnvSyncStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listAllNonRelatedMembers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.deleteRelateProjectById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.pageEnvUserPermissions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.updateEnvUserPermission</t>
+  </si>
+  <si>
     <t>devops-service.devops-cluster.queryClustersAndNodes</t>
   </si>
   <si>
+    <t>devops-service.devops-cluster.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryShell</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.checkCode</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.queryNodeInfo</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.pageQueryPodsByNodeName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.getGrafanaUrl</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.listClusterNodes</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.pageProjects</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.pageRelatedProjects</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.deletePermissionOfProject</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.listAllNonRelatedMembers</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.assignPermission</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.listClusterResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.deployCertManager</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.checkCertManager</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.unloadCertManager</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.getPrometheusDeployStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.retryInstallPrometheus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.queryPrometheus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.createPrometheus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.updatePrometheus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.queryPvcRelatedPv</t>
+  </si>
+  <si>
     <t>devops-service.project-certification.pageOrgCert</t>
   </si>
   <si>
     <t>devops-service.project-certification.query</t>
   </si>
   <si>
-    <t>devops-service.devops-pv.pageProjects</t>
-  </si>
-  <si>
     <t>devops-service.project-certification.assignPermission</t>
   </si>
   <si>
@@ -672,19 +983,10 @@
     <t>devops-service.devops-pv.deletePv</t>
   </si>
   <si>
-    <t>devops-service.devops-environment.listDevopsClusters</t>
-  </si>
-  <si>
     <t>devops-service.devops-pv.queryById</t>
   </si>
   <si>
-    <t>devops-service.devops-pv.listAllNonRelatedMembers</t>
-  </si>
-  <si>
     <t>devops-service.devops-pv.pageRelatedProjects</t>
-  </si>
-  <si>
-    <t>devops-service.devops-pv.deleteRelateProjectById</t>
   </si>
   <si>
     <t>devops-service.devops-pv.assignPermission</t>
@@ -726,9 +1028,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -780,58 +1082,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +1095,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,9 +1134,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,7 +1195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,6 +1217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -939,31 +1241,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,19 +1331,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,67 +1397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,31 +1415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1432,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1168,15 +1494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1195,23 +1512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,148 +1535,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3759,10 +4061,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H78"/>
+  <dimension ref="D7:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="H54" sqref="$A54:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3798,7 +4100,7 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="6:7">
@@ -3806,7 +4108,7 @@
         <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="6:7">
@@ -3814,7 +4116,7 @@
         <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="6:7">
@@ -3822,7 +4124,7 @@
         <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -3830,7 +4132,7 @@
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -3838,12 +4140,12 @@
         <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>175</v>
@@ -3851,7 +4153,7 @@
     </row>
     <row r="15" spans="6:7">
       <c r="F15" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>176</v>
@@ -3859,511 +4161,1407 @@
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7">
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" t="s">
+        <v>213</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" t="s">
+        <v>215</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
-      <c r="F39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7">
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7">
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7">
-      <c r="F43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7">
-      <c r="F44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7">
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7">
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7">
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7">
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7">
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7">
-      <c r="F51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7">
-      <c r="F53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7">
-      <c r="F54" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7">
-      <c r="F55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="6:7">
-      <c r="F56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="6:7">
-      <c r="F57" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="6:7">
-      <c r="F58" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7">
-      <c r="F59" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7">
-      <c r="F60" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" t="s">
+    <row r="62" spans="6:7">
+      <c r="F62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="6:7">
-      <c r="F61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7">
-      <c r="F62" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7">
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7">
-      <c r="F64" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7">
-      <c r="F65" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7">
-      <c r="F66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7">
-      <c r="F67" t="s">
-        <v>147</v>
-      </c>
-      <c r="G67" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7">
-      <c r="F68" t="s">
-        <v>147</v>
-      </c>
-      <c r="G68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7">
-      <c r="F69" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7">
-      <c r="F70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7">
-      <c r="F71" t="s">
-        <v>147</v>
-      </c>
-      <c r="G71" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="72" spans="6:7">
-      <c r="F72" t="s">
-        <v>147</v>
+      <c r="F72" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="6:7">
-      <c r="F73" t="s">
-        <v>149</v>
+      <c r="F73" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="6:7">
-      <c r="F74" t="s">
-        <v>149</v>
+      <c r="F74" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G74" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="6:7">
-      <c r="F75" t="s">
-        <v>149</v>
+      <c r="F75" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="6:7">
-      <c r="F76" t="s">
-        <v>149</v>
+      <c r="F76" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="6:7">
-      <c r="F77" t="s">
-        <v>149</v>
+      <c r="F77" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G80" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="F93" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7">
+      <c r="F96" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" t="s">
+        <v>119</v>
+      </c>
+      <c r="G98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="s">
+        <v>119</v>
+      </c>
+      <c r="G99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102" t="s">
+        <v>119</v>
+      </c>
+      <c r="G102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7">
+      <c r="F103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="F104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="F105" t="s">
+        <v>119</v>
+      </c>
+      <c r="G105" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7">
+      <c r="F106" t="s">
+        <v>119</v>
+      </c>
+      <c r="G106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7">
+      <c r="F107" t="s">
+        <v>119</v>
+      </c>
+      <c r="G107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7">
+      <c r="F108" t="s">
+        <v>119</v>
+      </c>
+      <c r="G108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="F109" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7">
+      <c r="F110" t="s">
+        <v>119</v>
+      </c>
+      <c r="G110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7">
+      <c r="F111" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7">
+      <c r="F112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7">
+      <c r="F113" t="s">
+        <v>119</v>
+      </c>
+      <c r="G113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7">
+      <c r="F114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7">
+      <c r="F115" t="s">
+        <v>119</v>
+      </c>
+      <c r="G115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7">
+      <c r="F116" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7">
+      <c r="F117" t="s">
+        <v>119</v>
+      </c>
+      <c r="G117" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7">
+      <c r="F118" t="s">
+        <v>119</v>
+      </c>
+      <c r="G118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7">
+      <c r="F119" t="s">
+        <v>119</v>
+      </c>
+      <c r="G119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7">
+      <c r="F120" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7">
+      <c r="F121" t="s">
+        <v>119</v>
+      </c>
+      <c r="G121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7">
+      <c r="F122" t="s">
+        <v>119</v>
+      </c>
+      <c r="G122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7">
+      <c r="F123" t="s">
+        <v>119</v>
+      </c>
+      <c r="G123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7">
+      <c r="F124" t="s">
+        <v>119</v>
+      </c>
+      <c r="G124" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7">
+      <c r="F125" t="s">
+        <v>119</v>
+      </c>
+      <c r="G125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7">
+      <c r="F126" t="s">
+        <v>119</v>
+      </c>
+      <c r="G126" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7">
+      <c r="F127" t="s">
+        <v>119</v>
+      </c>
+      <c r="G127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="F128" t="s">
+        <v>119</v>
+      </c>
+      <c r="G128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7">
+      <c r="F129" t="s">
+        <v>119</v>
+      </c>
+      <c r="G129" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7">
+      <c r="F130" t="s">
+        <v>127</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7">
+      <c r="F131" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7">
+      <c r="F132" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7">
+      <c r="F133" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7">
+      <c r="F134" t="s">
+        <v>127</v>
+      </c>
+      <c r="G134" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7">
+      <c r="F135" t="s">
+        <v>127</v>
+      </c>
+      <c r="G135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7">
+      <c r="F136" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7">
+      <c r="F137" t="s">
+        <v>127</v>
+      </c>
+      <c r="G137" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7">
+      <c r="F138" t="s">
+        <v>127</v>
+      </c>
+      <c r="G138" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7">
+      <c r="F139" t="s">
+        <v>127</v>
+      </c>
+      <c r="G139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7">
+      <c r="F140" t="s">
+        <v>127</v>
+      </c>
+      <c r="G140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7">
+      <c r="F141" t="s">
+        <v>127</v>
+      </c>
+      <c r="G141" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7">
+      <c r="F142" t="s">
+        <v>127</v>
+      </c>
+      <c r="G142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7">
+      <c r="F143" t="s">
+        <v>127</v>
+      </c>
+      <c r="G143" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7">
+      <c r="F144" t="s">
+        <v>127</v>
+      </c>
+      <c r="G144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7">
+      <c r="F145" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7">
+      <c r="F146" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7">
+      <c r="F147" t="s">
+        <v>127</v>
+      </c>
+      <c r="G147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7">
+      <c r="F148" t="s">
+        <v>127</v>
+      </c>
+      <c r="G148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7">
+      <c r="F149" t="s">
+        <v>127</v>
+      </c>
+      <c r="G149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7">
+      <c r="F150" t="s">
+        <v>127</v>
+      </c>
+      <c r="G150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7">
+      <c r="F151" t="s">
+        <v>127</v>
+      </c>
+      <c r="G151" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7">
+      <c r="F152" t="s">
+        <v>127</v>
+      </c>
+      <c r="G152" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7">
+      <c r="F153" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7">
+      <c r="F154" t="s">
+        <v>127</v>
+      </c>
+      <c r="G154" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7">
+      <c r="F155" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" t="s">
+        <v>127</v>
+      </c>
+      <c r="G156" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7">
+      <c r="F157" t="s">
+        <v>130</v>
+      </c>
+      <c r="G157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7">
+      <c r="F158" t="s">
+        <v>130</v>
+      </c>
+      <c r="G158" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="6:7">
+      <c r="F159" t="s">
+        <v>130</v>
+      </c>
+      <c r="G159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="6:7">
+      <c r="F160" t="s">
+        <v>130</v>
+      </c>
+      <c r="G160" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7">
+      <c r="F161" t="s">
+        <v>130</v>
+      </c>
+      <c r="G161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7">
+      <c r="F162" t="s">
+        <v>130</v>
+      </c>
+      <c r="G162" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7">
+      <c r="F163" t="s">
+        <v>130</v>
+      </c>
+      <c r="G163" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7">
+      <c r="F164" t="s">
+        <v>130</v>
+      </c>
+      <c r="G164" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7">
+      <c r="F165" t="s">
+        <v>130</v>
+      </c>
+      <c r="G165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7">
+      <c r="F166" t="s">
+        <v>130</v>
+      </c>
+      <c r="G166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7">
+      <c r="F167" t="s">
+        <v>134</v>
+      </c>
+      <c r="G167" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" customFormat="1" spans="6:7">
+      <c r="F168" t="s">
+        <v>134</v>
+      </c>
+      <c r="G168" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" customFormat="1" spans="6:7">
+      <c r="F169" t="s">
+        <v>134</v>
+      </c>
+      <c r="G169" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="6:7">
+      <c r="F170" t="s">
+        <v>134</v>
+      </c>
+      <c r="G170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7">
+      <c r="F171" t="s">
+        <v>134</v>
+      </c>
+      <c r="G171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7">
+      <c r="F172" t="s">
+        <v>134</v>
+      </c>
+      <c r="G172" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7">
+      <c r="F173" t="s">
+        <v>134</v>
+      </c>
+      <c r="G173" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7">
+      <c r="F174" t="s">
+        <v>134</v>
+      </c>
+      <c r="G174" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7">
+      <c r="F175" t="s">
+        <v>134</v>
+      </c>
+      <c r="G175" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7">
+      <c r="F176" t="s">
+        <v>134</v>
+      </c>
+      <c r="G176" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="177" spans="6:7">
+      <c r="F177" t="s">
+        <v>134</v>
+      </c>
+      <c r="G177" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="178" spans="6:7">
+      <c r="F178" t="s">
+        <v>134</v>
+      </c>
+      <c r="G178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="6:7">
+      <c r="F179" t="s">
+        <v>147</v>
+      </c>
+      <c r="G179" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="6:7">
+      <c r="F180" t="s">
+        <v>147</v>
+      </c>
+      <c r="G180" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="6:7">
+      <c r="F181" t="s">
+        <v>147</v>
+      </c>
+      <c r="G181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="6:7">
+      <c r="F182" t="s">
+        <v>147</v>
+      </c>
+      <c r="G182" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="183" spans="6:7">
+      <c r="F183" t="s">
+        <v>147</v>
+      </c>
+      <c r="G183" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="184" spans="6:7">
+      <c r="F184" t="s">
+        <v>147</v>
+      </c>
+      <c r="G184" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="6:7">
+      <c r="F185" t="s">
         <v>149</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G185" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="186" spans="6:7">
+      <c r="F186" t="s">
+        <v>149</v>
+      </c>
+      <c r="G186" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="6:7">
+      <c r="F187" t="s">
+        <v>149</v>
+      </c>
+      <c r="G187" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="188" spans="6:7">
+      <c r="F188" t="s">
+        <v>149</v>
+      </c>
+      <c r="G188" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="6:7">
+      <c r="F189" t="s">
+        <v>149</v>
+      </c>
+      <c r="G189" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="6:7">
+      <c r="F190" t="s">
+        <v>149</v>
+      </c>
+      <c r="G190" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="395">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -639,6 +639,270 @@
     <t>devops-service.devops-environment.listResourceEnvTree</t>
   </si>
   <si>
+    <t>devops-service.devops-environment.queryEnvInfo</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.checkExist</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-app-service.batchCreate</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-app-service.listNonRelatedAppService</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-app-service.delete</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.pageInstanceInfoByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-app-service.listLabelByAppAndEnvId</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listRunningInstance</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-app-service.listPortByAppAndEnvId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.pageByInstance</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.pageByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.pageByOption</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.deleteSecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByEnvIdAndStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.queryIngress</t>
+  </si>
+  <si>
+    <t>devops-service.certification.getActiveCertificationByDomain</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.checkDomain</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.queryIngressDetailById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.pageByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.querySecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.certification.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.certification.delete</t>
+  </si>
+  <si>
+    <t>devops-service.certification.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.certification.checkCertNameUniqueInEnv</t>
+  </si>
+  <si>
+    <t>devops-service.certification.create</t>
+  </si>
+  <si>
+    <t>devops-service.certification.listOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.pageByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.deleteResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.getResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.createResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pvc.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pvc.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pv.queryPvcRelatedPv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pvc.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-pvc.deletePvc</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkDelete</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-version.queryByProjectId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.retryByGitOps</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-file-error.pageByEnvId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.queryEnvSyncStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.deletePermissionOfUser</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.pageEnvUserPermissions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.updateEnvUserPermission</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listAllNonRelatedMembers</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.stop</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.checkDeleteResource</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.delete</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.update</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.queryUpgradeValue</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.getDeploymentDetailsJsonByInstanceId</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.getStatefulSetDetailsJsonByInstanceId</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.getDaemonSetDetailsJsonByInstanceId</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.operatePodCount</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listResourcesInHelmRelease</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.queryInstanceInformationById</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listEvents</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod.deleteEnvPod</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.restart</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listAll</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.queryEnvResourceCount</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod.queryEnvPodInfo</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.listByEnvAndApp</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.deploy</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.queryDeployValue</t>
+  </si>
+  <si>
     <t>devops-service.devops-git.pageTagsByOptions</t>
   </si>
   <si>
@@ -707,18 +971,6 @@
 </t>
   </si>
   <si>
-    <t>devops-service.app-service-instance.queryDeployValue</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.listByEnvAndApp</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.deploy</t>
-  </si>
-  <si>
     <t>devops-service.pipeline.failed</t>
   </si>
   <si>
@@ -746,12 +998,6 @@
     <t>devops-service.app-service-instance.listByAppServiceIdAndEnvId</t>
   </si>
   <si>
-    <t>devops-service.devops-deploy-value.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.update</t>
-  </si>
-  <si>
     <t>devops-service.devops-project.getAllUsers</t>
   </si>
   <si>
@@ -803,9 +1049,6 @@
     <t>devops-service.devops-environment.deleteCheck</t>
   </si>
   <si>
-    <t>devops-service.devops-environment.queryEnvInfo</t>
-  </si>
-  <si>
     <t>devops-service.devops-environment.updateActive</t>
   </si>
   <si>
@@ -827,48 +1070,9 @@
     <t>devops-service.devops-environment.query</t>
   </si>
   <si>
-    <t>devops-service.devops-environment.checkExist</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-deploy-value.checkDelete</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-version.queryByProjectId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.retryByGitOps</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-file-error.pageByEnvId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.queryEnvSyncStatus</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listAllNonRelatedMembers</t>
-  </si>
-  <si>
     <t>devops-service.devops-pv.deleteRelateProjectById</t>
   </si>
   <si>
-    <t>devops-service.devops-environment.pageEnvUserPermissions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.updateEnvUserPermission</t>
-  </si>
-  <si>
     <t>devops-service.devops-cluster.queryClustersAndNodes</t>
   </si>
   <si>
@@ -942,9 +1146,6 @@
   </si>
   <si>
     <t>devops-service.devops-cluster-resource.updatePrometheus</t>
-  </si>
-  <si>
-    <t>devops-service.devops-pv.queryPvcRelatedPv</t>
   </si>
   <si>
     <t>devops-service.project-certification.pageOrgCert</t>
@@ -1028,9 +1229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1082,6 +1283,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1089,24 +1297,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1135,15 +1328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,23 +1341,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,14 +1397,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,18 +1418,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1241,7 +1442,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternT